--- a/ALHE/results/finalResult.xlsx
+++ b/ALHE/results/finalResult.xlsx
@@ -19,107 +19,22 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C32" authorId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <t>Nie osiągnięto 'fixedAccuracy'</t>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="E36" authorId="0">
       <text>
         <t>Nie osiągnięto 'fixedAccuracy'</t>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="F36" authorId="0">
       <text>
         <t>Nie osiągnięto 'fixedAccuracy'</t>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="C34" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="D34" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="C35" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="D35" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="C36" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="D36" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="E32" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="F32" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="F33" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="E34" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="F34" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="E35" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="F35" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="E36" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="F36" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="F42" authorId="0">
+    <comment ref="E42" authorId="0">
       <text>
         <t>Nie osiągnięto 'terErr'</t>
       </text>
@@ -144,47 +59,22 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C32" authorId="0">
+    <comment ref="D32" authorId="0">
       <text>
         <t>Nie osiągnięto 'fixedAccuracy'</t>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="D33" authorId="0">
       <text>
         <t>Nie osiągnięto 'fixedAccuracy'</t>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="D34" authorId="0">
       <text>
         <t>Nie osiągnięto 'fixedAccuracy'</t>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="C34" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="D34" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="C35" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
     <comment ref="D35" authorId="0">
-      <text>
-        <t>Nie osiągnięto 'fixedAccuracy'</t>
-      </text>
-    </comment>
-    <comment ref="C36" authorId="0">
       <text>
         <t>Nie osiągnięto 'fixedAccuracy'</t>
       </text>
@@ -534,15 +424,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="27">
   <si>
     <t>Tytuł</t>
   </si>
   <si>
     <t>dimensions:</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>maxFES:</t>
@@ -602,25 +489,29 @@
     <t>ON</t>
   </si>
   <si>
-    <t>0%</t>
+    <t>100%</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>10</t>
+    <t>72%</t>
   </si>
   <si>
-    <t>30</t>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="Percent"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="19">
     <font>
       <sz val="11.0"/>
@@ -965,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="784">
+  <cellXfs count="826">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1240,13 +1131,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1303,13 +1221,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1583,13 +1528,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1646,13 +1618,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1926,13 +1925,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1989,13 +2015,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2033,172 +2086,172 @@
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
-        <v>2</v>
+      <c r="B2" t="n" s="6">
+        <v>2.0</v>
       </c>
       <c r="C2" t="s" s="176">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="177"/>
-      <c r="E2" t="s" s="221">
-        <v>23</v>
-      </c>
-      <c r="F2" s="222"/>
+      <c r="E2" t="s" s="228">
+        <v>22</v>
+      </c>
+      <c r="F2" s="229"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n" s="7">
         <v>20000.0</v>
       </c>
       <c r="C3" t="s" s="181">
+        <v>19</v>
+      </c>
+      <c r="D3" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="185" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="226">
+      <c r="E3" t="s" s="233">
+        <v>19</v>
+      </c>
+      <c r="F3" s="237" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="230" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="15">
-        <v>5</v>
-      </c>
       <c r="C4" s="186" t="n">
-        <v>1.66569407156203E-8</v>
+        <v>3.9470228330174E-7</v>
       </c>
       <c r="D4" s="187" t="n">
-        <v>1.9178753518645E-7</v>
-      </c>
-      <c r="E4" s="231" t="n">
-        <v>0.0100282565398686</v>
-      </c>
-      <c r="F4" s="232" t="n">
-        <v>0.0100689727347998</v>
+        <v>3.01316731565748E-7</v>
+      </c>
+      <c r="E4" s="238" t="n">
+        <v>0.00567798966912392</v>
+      </c>
+      <c r="F4" s="239" t="n">
+        <v>0.00603037710821752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12"/>
       <c r="B5" t="s" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.14600981962576E-6</v>
+        <v>3.79302554165406E-6</v>
       </c>
       <c r="D5" s="172" t="n">
-        <v>8.84967198544473E-6</v>
+        <v>4.61895840544457E-5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0275015363255591</v>
-      </c>
-      <c r="F5" s="217" t="n">
-        <v>0.0365936519695111</v>
+        <v>0.0312220849360756</v>
+      </c>
+      <c r="F5" s="224" t="n">
+        <v>0.0280928082759146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12"/>
       <c r="B6" t="s" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01630532185482E-5</v>
+        <v>8.52526994776781E-6</v>
       </c>
       <c r="D6" s="172" t="n">
-        <v>6.75042533657688E-5</v>
+        <v>8.73965377650165E-5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0538103024919678</v>
-      </c>
-      <c r="F6" s="217" t="n">
-        <v>0.0977045754797388</v>
+        <v>0.0572613421774406</v>
+      </c>
+      <c r="F6" s="224" t="n">
+        <v>0.0549776234197878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12"/>
       <c r="B7" t="s" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.97847932099648E-5</v>
+        <v>1.53067472865587E-5</v>
       </c>
       <c r="D7" s="172" t="n">
-        <v>1.38293363136199E-4</v>
+        <v>2.09705757413303E-4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.165894171258856</v>
-      </c>
-      <c r="F7" s="217" t="n">
-        <v>0.508343253940623</v>
+        <v>0.407653904956078</v>
+      </c>
+      <c r="F7" s="224" t="n">
+        <v>0.268795016394051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12"/>
       <c r="B8" t="s" s="27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>9.45150209190615E-5</v>
+        <v>9.38066332082599E-4</v>
       </c>
       <c r="D8" s="172" t="n">
-        <v>0.00117602668825612</v>
+        <v>5.76186528348899E-4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.920447918911819</v>
-      </c>
-      <c r="F8" s="217" t="n">
-        <v>1.05918373355024</v>
+        <v>0.639164303342298</v>
+      </c>
+      <c r="F8" s="224" t="n">
+        <v>1.11844427412701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12"/>
       <c r="B9" t="s" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n" s="188">
-        <v>2.0395562935391356E-5</v>
+        <v>5.202986955737289E-5</v>
       </c>
       <c r="D9" s="189" t="n">
-        <v>1.5092765640702062E-4</v>
-      </c>
-      <c r="E9" t="n" s="233">
-        <v>0.16242252398705093</v>
-      </c>
-      <c r="F9" s="234" t="n">
-        <v>0.26944270374728885</v>
+        <v>1.403247794792151E-4</v>
+      </c>
+      <c r="E9" t="n" s="240">
+        <v>0.20434792215277245</v>
+      </c>
+      <c r="F9" s="241" t="n">
+        <v>0.22778849077115912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12"/>
       <c r="B10" t="s" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n" s="188">
-        <v>2.7371776315630845E-5</v>
+        <v>1.863919538294623E-4</v>
       </c>
       <c r="D10" s="189" t="n">
-        <v>2.788036018950351E-4</v>
-      </c>
-      <c r="E10" t="n" s="233">
-        <v>0.23343795397034214</v>
-      </c>
-      <c r="F10" s="234" t="n">
-        <v>0.29207105159662317</v>
+        <v>1.4487478658764316E-4</v>
+      </c>
+      <c r="E10" t="n" s="240">
+        <v>0.23923278444946477</v>
+      </c>
+      <c r="F10" s="241" t="n">
+        <v>0.3361177288160015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="190" t="n">
         <v>0.0</v>
@@ -2206,17 +2259,17 @@
       <c r="D11" s="191" t="n">
         <v>0.0</v>
       </c>
-      <c r="E11" s="235" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="236" t="n">
+      <c r="E11" s="242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38"/>
       <c r="B12" t="s" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -2227,14 +2280,14 @@
       <c r="E12" t="n">
         <v>0.0</v>
       </c>
-      <c r="F12" s="217" t="n">
+      <c r="F12" s="224" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="38"/>
       <c r="B13" t="s" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -2245,14 +2298,14 @@
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
-      <c r="F13" s="217" t="n">
+      <c r="F13" s="224" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="38"/>
       <c r="B14" t="s" s="50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -2261,16 +2314,16 @@
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="217" t="n">
-        <v>0.495292786732875</v>
+        <v>0.262473512761773</v>
+      </c>
+      <c r="F14" s="224" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38"/>
       <c r="B15" t="s" s="53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -2279,16 +2332,16 @@
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.918563571889507</v>
-      </c>
-      <c r="F15" s="217" t="n">
-        <v>1.05884724225079</v>
+        <v>0.634570343369376</v>
+      </c>
+      <c r="F15" s="224" t="n">
+        <v>1.11813599488146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38"/>
       <c r="B16" t="s" s="56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n" s="192">
         <v>0.0</v>
@@ -2296,17 +2349,17 @@
       <c r="D16" s="193" t="n">
         <v>0.0</v>
       </c>
-      <c r="E16" t="n" s="237">
-        <v>0.08752766494073907</v>
-      </c>
-      <c r="F16" s="238" t="n">
-        <v>0.1956065874353396</v>
+      <c r="E16" t="n" s="244">
+        <v>0.1437735725176538</v>
+      </c>
+      <c r="F16" s="245" t="n">
+        <v>0.18374589211885464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38"/>
       <c r="B17" t="s" s="59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n" s="192">
         <v>0.0</v>
@@ -2314,19 +2367,19 @@
       <c r="D17" s="193" t="n">
         <v>0.0</v>
       </c>
-      <c r="E17" t="n" s="237">
-        <v>0.2350284583275151</v>
-      </c>
-      <c r="F17" s="238" t="n">
-        <v>0.3118582801400953</v>
+      <c r="E17" t="n" s="244">
+        <v>0.2455066319392787</v>
+      </c>
+      <c r="F17" s="245" t="n">
+        <v>0.35366117921588097</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s" s="67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="194" t="n">
         <v>0.0</v>
@@ -2334,17 +2387,17 @@
       <c r="D18" s="195" t="n">
         <v>0.0</v>
       </c>
-      <c r="E18" s="239" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="240" t="n">
+      <c r="E18" s="246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="64"/>
       <c r="B19" t="s" s="70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -2355,14 +2408,14 @@
       <c r="E19" t="n">
         <v>0.0</v>
       </c>
-      <c r="F19" s="217" t="n">
+      <c r="F19" s="224" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="64"/>
       <c r="B20" t="s" s="73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -2373,14 +2426,14 @@
       <c r="E20" t="n">
         <v>0.0</v>
       </c>
-      <c r="F20" s="217" t="n">
+      <c r="F20" s="224" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64"/>
       <c r="B21" t="s" s="76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
@@ -2391,14 +2444,14 @@
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
-      <c r="F21" s="217" t="n">
+      <c r="F21" s="224" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="64"/>
       <c r="B22" t="s" s="79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -2409,14 +2462,14 @@
       <c r="E22" t="n">
         <v>0.0</v>
       </c>
-      <c r="F22" s="217" t="n">
+      <c r="F22" s="224" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="64"/>
       <c r="B23" t="s" s="82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n" s="196">
         <v>0.0</v>
@@ -2424,17 +2477,17 @@
       <c r="D23" s="197" t="n">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="241">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="242" t="n">
+      <c r="E23" t="n" s="248">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="64"/>
       <c r="B24" t="s" s="85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n" s="196">
         <v>0.0</v>
@@ -2442,431 +2495,431 @@
       <c r="D24" s="197" t="n">
         <v>0.0</v>
       </c>
-      <c r="E24" t="n" s="241">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="242" t="n">
+      <c r="E24" t="n" s="248">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s" s="93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="198" t="n">
-        <v>3.53281848219922E-10</v>
+        <v>2.74212652584538E-10</v>
       </c>
       <c r="D25" s="199" t="n">
-        <v>1.63140612130519E-11</v>
-      </c>
-      <c r="E25" s="243" t="n">
-        <v>8.97557583812159E-10</v>
-      </c>
-      <c r="F25" s="244" t="n">
-        <v>6.56683596389485E-10</v>
+        <v>2.45790943154134E-10</v>
+      </c>
+      <c r="E25" s="250" t="n">
+        <v>1.12322595668957E-10</v>
+      </c>
+      <c r="F25" s="251" t="n">
+        <v>3.04069658341177E-10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="90"/>
       <c r="B26" t="s" s="96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.02392050393973E-9</v>
+        <v>1.49196921483963E-9</v>
       </c>
       <c r="D26" s="172" t="n">
-        <v>2.79732148555922E-9</v>
+        <v>3.35688810082502E-9</v>
       </c>
       <c r="E26" t="n">
-        <v>2.19974083393026E-9</v>
-      </c>
-      <c r="F26" s="217" t="n">
-        <v>5.01280794651393E-9</v>
+        <v>2.41091413499817E-9</v>
+      </c>
+      <c r="F26" s="224" t="n">
+        <v>3.35614913637983E-9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="90"/>
       <c r="B27" t="s" s="99">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>3.94021526517463E-9</v>
+        <v>3.00912006423459E-9</v>
       </c>
       <c r="D27" s="172" t="n">
-        <v>4.76910599900293E-9</v>
+        <v>6.33986019238364E-9</v>
       </c>
       <c r="E27" t="n">
-        <v>5.58296164854255E-9</v>
-      </c>
-      <c r="F27" s="217" t="n">
-        <v>6.44759268197959E-9</v>
+        <v>6.94589630256814E-9</v>
+      </c>
+      <c r="F27" s="224" t="n">
+        <v>6.48890363663668E-9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="90"/>
       <c r="B28" t="s" s="102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>7.64811147746514E-9</v>
+        <v>6.23981577518862E-9</v>
       </c>
       <c r="D28" s="172" t="n">
-        <v>7.3810042522382E-9</v>
+        <v>7.66578978073085E-9</v>
       </c>
       <c r="E28" t="n">
-        <v>7.97824384335399E-9</v>
-      </c>
-      <c r="F28" s="217" t="n">
-        <v>0.495292786732875</v>
+        <v>0.262473512761773</v>
+      </c>
+      <c r="F28" s="224" t="n">
+        <v>9.52984180457861E-9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="90"/>
       <c r="B29" t="s" s="105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>9.9068415693182E-9</v>
+        <v>9.86892700893804E-9</v>
       </c>
       <c r="D29" s="172" t="n">
-        <v>9.76365299720783E-9</v>
+        <v>9.51331458054483E-9</v>
       </c>
       <c r="E29" t="n">
-        <v>0.918563571889507</v>
-      </c>
-      <c r="F29" s="217" t="n">
-        <v>1.05884724225079</v>
+        <v>0.634570343369376</v>
+      </c>
+      <c r="F29" s="224" t="n">
+        <v>1.11813599488146</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="90"/>
       <c r="B30" t="s" s="108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n" s="200">
-        <v>4.4896387407789006E-9</v>
+        <v>3.9182054933917245E-9</v>
       </c>
       <c r="D30" s="201" t="n">
-        <v>4.75679826195119E-9</v>
-      </c>
-      <c r="E30" t="n" s="245">
-        <v>0.08752766864181578</v>
-      </c>
-      <c r="F30" s="246" t="n">
-        <v>0.19560659100167524</v>
+        <v>5.488059287017677E-9</v>
+      </c>
+      <c r="E30" t="n" s="252">
+        <v>0.1437735756961104</v>
+      </c>
+      <c r="F30" s="253" t="n">
+        <v>0.18374589585083767</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="90"/>
       <c r="B31" t="s" s="111">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n" s="200">
-        <v>3.2700108916435194E-9</v>
+        <v>2.9485805879531152E-9</v>
       </c>
       <c r="D31" s="201" t="n">
-        <v>3.049007661164884E-9</v>
-      </c>
-      <c r="E31" t="n" s="245">
-        <v>0.23502845689175547</v>
-      </c>
-      <c r="F31" s="246" t="n">
-        <v>0.31185827780998127</v>
+        <v>2.8837656675247644E-9</v>
+      </c>
+      <c r="E31" t="n" s="252">
+        <v>0.24550663000035425</v>
+      </c>
+      <c r="F31" s="253" t="n">
+        <v>0.35366117719612605</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="115">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s" s="119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="202" t="n">
-        <v>20000.0</v>
+        <v>940.0</v>
       </c>
       <c r="D32" s="203" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="E32" s="247" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="F32" s="248" t="n">
-        <v>20000.0</v>
+        <v>900.0</v>
+      </c>
+      <c r="E32" s="254" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="F32" s="255" t="n">
+        <v>920.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="116"/>
       <c r="B33" t="s" s="122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>20000.0</v>
+        <v>1100.0</v>
       </c>
       <c r="D33" s="172" t="n">
-        <v>20000.0</v>
+        <v>1240.0</v>
       </c>
       <c r="E33" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="F33" s="217" t="n">
-        <v>20000.0</v>
+        <v>1220.0</v>
+      </c>
+      <c r="F33" s="224" t="n">
+        <v>1280.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="116"/>
       <c r="B34" t="s" s="125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>20000.0</v>
+        <v>1140.0</v>
       </c>
       <c r="D34" s="172" t="n">
-        <v>20000.0</v>
+        <v>1280.0</v>
       </c>
       <c r="E34" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="F34" s="217" t="n">
-        <v>20000.0</v>
+        <v>1460.0</v>
+      </c>
+      <c r="F34" s="224" t="n">
+        <v>1440.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="116"/>
       <c r="B35" t="s" s="128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>20000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="D35" s="172" t="n">
-        <v>20000.0</v>
+        <v>1340.0</v>
       </c>
       <c r="E35" t="n">
         <v>20000.0</v>
       </c>
-      <c r="F35" s="217" t="n">
-        <v>20000.0</v>
+      <c r="F35" s="224" t="n">
+        <v>1640.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="116"/>
       <c r="B36" t="s" s="131">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>20000.0</v>
+        <v>1280.0</v>
       </c>
       <c r="D36" s="172" t="n">
-        <v>20000.0</v>
+        <v>1540.0</v>
       </c>
       <c r="E36" t="n">
         <v>20000.0</v>
       </c>
-      <c r="F36" s="217" t="n">
+      <c r="F36" s="224" t="n">
         <v>20000.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="116"/>
       <c r="B37" t="s" s="134">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n" s="204">
-        <v>20000.0</v>
+        <v>1143.2</v>
       </c>
       <c r="D37" s="205" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="E37" t="n" s="249">
-        <v>20000.0</v>
-      </c>
-      <c r="F37" s="250" t="n">
-        <v>20000.0</v>
+        <v>1297.6</v>
+      </c>
+      <c r="E37" t="n" s="256">
+        <v>6548.8</v>
+      </c>
+      <c r="F37" s="257" t="n">
+        <v>5835.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="116"/>
       <c r="B38" t="s" s="137">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n" s="204">
-        <v>0.0</v>
+        <v>80.55639846302299</v>
       </c>
       <c r="D38" s="205" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n" s="249">
-        <v>0.0</v>
-      </c>
-      <c r="F38" s="250" t="n">
-        <v>0.0</v>
+        <v>123.60151023888557</v>
+      </c>
+      <c r="E38" t="n" s="256">
+        <v>8563.768796505427</v>
+      </c>
+      <c r="F38" s="257" t="n">
+        <v>8125.597988250875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="141">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s" s="145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="206" t="n">
-        <v>1160.0</v>
+        <v>1200.0</v>
       </c>
       <c r="D39" s="207" t="n">
-        <v>1220.0</v>
-      </c>
-      <c r="E39" s="251" t="n">
-        <v>2780.0</v>
-      </c>
-      <c r="F39" s="252" t="n">
-        <v>3300.0</v>
+        <v>1240.0</v>
+      </c>
+      <c r="E39" s="258" t="n">
+        <v>2820.0</v>
+      </c>
+      <c r="F39" s="259" t="n">
+        <v>3060.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="142"/>
       <c r="B40" t="s" s="148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>1300.0</v>
+        <v>1360.0</v>
       </c>
       <c r="D40" s="172" t="n">
-        <v>1420.0</v>
+        <v>1460.0</v>
       </c>
       <c r="E40" t="n">
-        <v>3180.0</v>
-      </c>
-      <c r="F40" s="217" t="n">
-        <v>3580.0</v>
+        <v>3280.0</v>
+      </c>
+      <c r="F40" s="224" t="n">
+        <v>3360.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="142"/>
       <c r="B41" t="s" s="151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1380.0</v>
+        <v>1420.0</v>
       </c>
       <c r="D41" s="172" t="n">
-        <v>1560.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E41" t="n">
         <v>3480.0</v>
       </c>
-      <c r="F41" s="217" t="n">
-        <v>4120.0</v>
+      <c r="F41" s="224" t="n">
+        <v>3760.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="142"/>
       <c r="B42" t="s" s="154">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>1460.0</v>
+        <v>1480.0</v>
       </c>
       <c r="D42" s="172" t="n">
-        <v>1600.0</v>
+        <v>1680.0</v>
       </c>
       <c r="E42" t="n">
-        <v>3820.0</v>
-      </c>
-      <c r="F42" s="217" t="n">
         <v>20000.0</v>
+      </c>
+      <c r="F42" s="224" t="n">
+        <v>4280.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="142"/>
       <c r="B43" t="s" s="157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>1540.0</v>
+        <v>1520.0</v>
       </c>
       <c r="D43" s="172" t="n">
-        <v>1780.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E43" t="n">
         <v>20000.0</v>
       </c>
-      <c r="F43" s="217" t="n">
+      <c r="F43" s="224" t="n">
         <v>20000.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="142"/>
       <c r="B44" t="s" s="160">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n" s="208">
-        <v>1380.0</v>
+        <v>1405.6</v>
       </c>
       <c r="D44" s="209" t="n">
-        <v>1508.0</v>
-      </c>
-      <c r="E44" t="n" s="253">
-        <v>6064.0</v>
-      </c>
-      <c r="F44" s="254" t="n">
-        <v>8952.0</v>
+        <v>1584.0</v>
+      </c>
+      <c r="E44" t="n" s="260">
+        <v>8005.6</v>
+      </c>
+      <c r="F44" s="261" t="n">
+        <v>7496.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="142"/>
       <c r="B45" t="s" s="163">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n" s="208">
-        <v>107.54843869934452</v>
+        <v>93.54499808470075</v>
       </c>
       <c r="D45" s="209" t="n">
-        <v>147.19601443879745</v>
-      </c>
-      <c r="E45" t="n" s="253">
-        <v>6217.411036757985</v>
-      </c>
-      <c r="F45" s="254" t="n">
-        <v>7742.908583557818</v>
+        <v>164.41816606851364</v>
+      </c>
+      <c r="E45" t="n" s="260">
+        <v>7637.221396991622</v>
+      </c>
+      <c r="F45" s="261" t="n">
+        <v>7177.280543492779</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="166">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="167"/>
-      <c r="C46" s="210" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="216" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E46" s="255" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="261" t="n">
-        <v>0.0</v>
+      <c r="C46" t="s" s="218">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="220">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s" s="270">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s" s="272">
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="170">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="171"/>
-      <c r="C47" s="213" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D47" s="214" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E47" s="258" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F47" s="259" t="e">
-        <v>#NUM!</v>
+      <c r="C47" t="n" s="222">
+        <v>1143.2</v>
+      </c>
+      <c r="D47" t="n" s="223">
+        <v>1297.6</v>
+      </c>
+      <c r="E47" t="n" s="274">
+        <v>1830.2469135802469</v>
+      </c>
+      <c r="F47" t="n" s="275">
+        <v>1792.2437673130194</v>
       </c>
     </row>
   </sheetData>
@@ -2902,848 +2955,848 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="263">
+      <c r="A1" t="s" s="277">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="265">
+      <c r="A2" t="s" s="279">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="267">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s" s="437">
+      <c r="B2" t="n" s="281">
+        <v>10.0</v>
+      </c>
+      <c r="C2" t="s" s="451">
+        <v>18</v>
+      </c>
+      <c r="D2" s="452"/>
+      <c r="E2" t="s" s="503">
+        <v>22</v>
+      </c>
+      <c r="F2" s="504"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="280">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="282">
+        <v>100000.0</v>
+      </c>
+      <c r="C3" t="s" s="456">
         <v>19</v>
       </c>
-      <c r="D2" s="438"/>
-      <c r="E2" t="s" s="482">
-        <v>23</v>
-      </c>
-      <c r="F2" s="483"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="266">
+      <c r="D3" s="460" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="508">
+        <v>19</v>
+      </c>
+      <c r="F3" s="512" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="B3" t="n" s="268">
+      <c r="B4" t="s" s="290">
+        <v>4</v>
+      </c>
+      <c r="C4" s="461" t="n">
+        <v>2427.35164783818</v>
+      </c>
+      <c r="D4" s="462" t="n">
+        <v>2606.8930568142</v>
+      </c>
+      <c r="E4" s="513" t="n">
+        <v>9.75055029629564</v>
+      </c>
+      <c r="F4" s="514" t="n">
+        <v>9.8055966078403</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="287"/>
+      <c r="B5" t="s" s="293">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4543.01028980683</v>
+      </c>
+      <c r="D5" s="447" t="n">
+        <v>4761.63371737853</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.7150709520497</v>
+      </c>
+      <c r="F5" s="499" t="n">
+        <v>10.6148506946463</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="287"/>
+      <c r="B6" t="s" s="296">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5539.16837753131</v>
+      </c>
+      <c r="D6" s="447" t="n">
+        <v>5363.130544502</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.4356590489175</v>
+      </c>
+      <c r="F6" s="499" t="n">
+        <v>11.6841931721084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="287"/>
+      <c r="B7" t="s" s="299">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5970.22329117672</v>
+      </c>
+      <c r="D7" s="447" t="n">
+        <v>7630.31061250958</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.9803875506005</v>
+      </c>
+      <c r="F7" s="499" t="n">
+        <v>11.9643366096392</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="287"/>
+      <c r="B8" t="s" s="302">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8231.71993758605</v>
+      </c>
+      <c r="D8" s="447" t="n">
+        <v>8944.65210752254</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.0403561801519</v>
+      </c>
+      <c r="F8" s="499" t="n">
+        <v>12.8422806762565</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="287"/>
+      <c r="B9" t="s" s="305">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n" s="463">
+        <v>5430.003514430847</v>
+      </c>
+      <c r="D9" s="464" t="n">
+        <v>5860.226983601689</v>
+      </c>
+      <c r="E9" t="n" s="515">
+        <v>11.377945527505673</v>
+      </c>
+      <c r="F9" s="516" t="n">
+        <v>11.358129926724777</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="287"/>
+      <c r="B10" t="s" s="308">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n" s="463">
+        <v>1433.1442783377051</v>
+      </c>
+      <c r="D10" s="464" t="n">
+        <v>1854.5657812320233</v>
+      </c>
+      <c r="E10" t="n" s="515">
+        <v>0.8804189800989582</v>
+      </c>
+      <c r="F10" s="516" t="n">
+        <v>0.8243246626337722</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="312">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s" s="316">
+        <v>4</v>
+      </c>
+      <c r="C11" s="465" t="n">
+        <v>5.81057966289785</v>
+      </c>
+      <c r="D11" s="466" t="n">
+        <v>8.13266473805902</v>
+      </c>
+      <c r="E11" s="517" t="n">
+        <v>2.00229812788214</v>
+      </c>
+      <c r="F11" s="518" t="n">
+        <v>2.66023159721765</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="313"/>
+      <c r="B12" t="s" s="319">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.2611243597951</v>
+      </c>
+      <c r="D12" s="447" t="n">
+        <v>12.0138728092307</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.43604617927832</v>
+      </c>
+      <c r="F12" s="499" t="n">
+        <v>4.27728367225816</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="313"/>
+      <c r="B13" t="s" s="322">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13.8892116019883</v>
+      </c>
+      <c r="D13" s="447" t="n">
+        <v>16.8771589612408</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.78562852571046</v>
+      </c>
+      <c r="F13" s="499" t="n">
+        <v>4.8122898095706</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="313"/>
+      <c r="B14" t="s" s="325">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.5757666873454</v>
+      </c>
+      <c r="D14" s="447" t="n">
+        <v>21.4076712021215</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.56557980665639</v>
+      </c>
+      <c r="F14" s="499" t="n">
+        <v>5.73703404255491</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="313"/>
+      <c r="B15" t="s" s="328">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.896543170013</v>
+      </c>
+      <c r="D15" s="447" t="n">
+        <v>105.022346820773</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.4673454082379</v>
+      </c>
+      <c r="F15" s="499" t="n">
+        <v>7.56214200953364</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="313"/>
+      <c r="B16" t="s" s="331">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n" s="467">
+        <v>14.152098685930387</v>
+      </c>
+      <c r="D16" s="468" t="n">
+        <v>29.91707869198539</v>
+      </c>
+      <c r="E16" t="n" s="519">
+        <v>5.060449285347576</v>
+      </c>
+      <c r="F16" s="520" t="n">
+        <v>4.892089360081182</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="313"/>
+      <c r="B17" t="s" s="334">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n" s="467">
+        <v>4.298240236161256</v>
+      </c>
+      <c r="D17" s="468" t="n">
+        <v>33.58696987696318</v>
+      </c>
+      <c r="E17" t="n" s="519">
+        <v>1.3435919488011132</v>
+      </c>
+      <c r="F17" s="520" t="n">
+        <v>1.2300257104162564</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="338">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s" s="342">
+        <v>4</v>
+      </c>
+      <c r="C18" s="469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="470" t="n">
+        <v>0.00207778469479081</v>
+      </c>
+      <c r="E18" s="521" t="n">
+        <v>0.835307544266612</v>
+      </c>
+      <c r="F18" s="522" t="n">
+        <v>0.804434020203956</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="339"/>
+      <c r="B19" t="s" s="345">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="447" t="n">
+        <v>0.00783867820683781</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.77086318349561</v>
+      </c>
+      <c r="F19" s="499" t="n">
+        <v>2.72911353281476</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="339"/>
+      <c r="B20" t="s" s="348">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="447" t="n">
+        <v>0.0141161261166189</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.64127682583711</v>
+      </c>
+      <c r="F20" s="499" t="n">
+        <v>3.76677015117728</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="339"/>
+      <c r="B21" t="s" s="351">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="447" t="n">
+        <v>0.02884259730331</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.47776352956411</v>
+      </c>
+      <c r="F21" s="499" t="n">
+        <v>4.1799074272884</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="339"/>
+      <c r="B22" t="s" s="354">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="447" t="n">
+        <v>103.25811456</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.1448746676222</v>
+      </c>
+      <c r="F22" s="499" t="n">
+        <v>7.09444610768976</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="339"/>
+      <c r="B23" t="s" s="357">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n" s="471">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="472" t="n">
+        <v>16.533801942072667</v>
+      </c>
+      <c r="E23" t="n" s="523">
+        <v>3.775934932225864</v>
+      </c>
+      <c r="F23" s="524" t="n">
+        <v>3.5835386321440827</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="339"/>
+      <c r="B24" t="s" s="360">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n" s="471">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="472" t="n">
+        <v>38.63008080300709</v>
+      </c>
+      <c r="E24" t="n" s="523">
+        <v>1.5531201369932643</v>
+      </c>
+      <c r="F24" s="524" t="n">
+        <v>1.4329961657825099</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="364">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="368">
+        <v>4</v>
+      </c>
+      <c r="C25" s="473" t="n">
+        <v>4.92667595608509E-9</v>
+      </c>
+      <c r="D25" s="474" t="n">
+        <v>0.00207778469479081</v>
+      </c>
+      <c r="E25" s="525" t="n">
+        <v>0.835307544266612</v>
+      </c>
+      <c r="F25" s="526" t="n">
+        <v>0.804434020203956</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="365"/>
+      <c r="B26" t="s" s="371">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.59497345623095E-9</v>
+      </c>
+      <c r="D26" s="447" t="n">
+        <v>0.00783867820683781</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.77086318349561</v>
+      </c>
+      <c r="F26" s="499" t="n">
+        <v>2.72911353281476</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="365"/>
+      <c r="B27" t="s" s="374">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.26099721962237E-9</v>
+      </c>
+      <c r="D27" s="447" t="n">
+        <v>0.0141161261166189</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.64127682583711</v>
+      </c>
+      <c r="F27" s="499" t="n">
+        <v>3.76677015117728</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="365"/>
+      <c r="B28" t="s" s="377">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.99387941899477E-9</v>
+      </c>
+      <c r="D28" s="447" t="n">
+        <v>0.02884259730331</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.47776352956411</v>
+      </c>
+      <c r="F28" s="499" t="n">
+        <v>4.1799074272884</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="365"/>
+      <c r="B29" t="s" s="380">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.6701455731818E-9</v>
+      </c>
+      <c r="D29" s="447" t="n">
+        <v>103.25811456</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.1448746676222</v>
+      </c>
+      <c r="F29" s="499" t="n">
+        <v>7.09444610768976</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="365"/>
+      <c r="B30" t="s" s="383">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n" s="475">
+        <v>7.841647402528906E-9</v>
+      </c>
+      <c r="D30" s="476" t="n">
+        <v>16.533801942072667</v>
+      </c>
+      <c r="E30" t="n" s="527">
+        <v>3.775934932225864</v>
+      </c>
+      <c r="F30" s="528" t="n">
+        <v>3.5835386321440827</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="365"/>
+      <c r="B31" t="s" s="386">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n" s="475">
+        <v>1.4535505685384464E-9</v>
+      </c>
+      <c r="D31" s="476" t="n">
+        <v>38.63008080300709</v>
+      </c>
+      <c r="E31" t="n" s="527">
+        <v>1.5531201369932643</v>
+      </c>
+      <c r="F31" s="528" t="n">
+        <v>1.4329961657825099</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="390">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="394">
+        <v>4</v>
+      </c>
+      <c r="C32" s="477" t="n">
+        <v>69800.0</v>
+      </c>
+      <c r="D32" s="478" t="n">
         <v>100000.0</v>
       </c>
-      <c r="C3" t="s" s="442">
-        <v>20</v>
-      </c>
-      <c r="D3" s="446" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="487">
-        <v>20</v>
-      </c>
-      <c r="F3" s="491" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="272">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="276">
+      <c r="E32" s="529" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F32" s="530" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="391"/>
+      <c r="B33" t="s" s="397">
         <v>5</v>
       </c>
-      <c r="C4" s="447" t="n">
-        <v>2475.06362112146</v>
-      </c>
-      <c r="D4" s="448" t="n">
-        <v>2538.26643778287</v>
-      </c>
-      <c r="E4" s="492" t="n">
-        <v>10.211542126047</v>
-      </c>
-      <c r="F4" s="493" t="n">
-        <v>10.1366439018237</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="273"/>
-      <c r="B5" t="s" s="279">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3832.28938470046</v>
-      </c>
-      <c r="D5" s="433" t="n">
-        <v>3880.88044939682</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.1683624230212</v>
-      </c>
-      <c r="F5" s="478" t="n">
-        <v>10.9418089541831</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="273"/>
-      <c r="B6" t="s" s="282">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5405.82699485442</v>
-      </c>
-      <c r="D6" s="433" t="n">
-        <v>4917.6150662619</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.4766205427528</v>
-      </c>
-      <c r="F6" s="478" t="n">
-        <v>11.552333030908</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="273"/>
-      <c r="B7" t="s" s="285">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6230.19646634107</v>
-      </c>
-      <c r="D7" s="433" t="n">
-        <v>6562.05141620464</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.199811924768</v>
-      </c>
-      <c r="F7" s="478" t="n">
-        <v>12.008550172698</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="273"/>
-      <c r="B8" t="s" s="288">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7816.85685028057</v>
-      </c>
-      <c r="D8" s="433" t="n">
-        <v>7820.11456968281</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12.6974998507869</v>
-      </c>
-      <c r="F8" s="478" t="n">
-        <v>13.2905514798704</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="273"/>
-      <c r="B9" t="s" s="291">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n" s="449">
-        <v>5047.015543381815</v>
-      </c>
-      <c r="D9" s="450" t="n">
-        <v>5092.6760603641715</v>
-      </c>
-      <c r="E9" t="n" s="494">
-        <v>11.592013033398771</v>
-      </c>
-      <c r="F9" s="495" t="n">
-        <v>11.515792848698132</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="273"/>
-      <c r="B10" t="s" s="294">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n" s="449">
-        <v>1619.02440671803</v>
-      </c>
-      <c r="D10" s="450" t="n">
-        <v>1667.2441373042602</v>
-      </c>
-      <c r="E10" t="n" s="494">
-        <v>0.6610515441297683</v>
-      </c>
-      <c r="F10" s="495" t="n">
-        <v>0.812207080293377</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="298">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s" s="302">
-        <v>5</v>
-      </c>
-      <c r="C11" s="451" t="n">
-        <v>5.32526337419068</v>
-      </c>
-      <c r="D11" s="452" t="n">
-        <v>6.3903966644441</v>
-      </c>
-      <c r="E11" s="496" t="n">
-        <v>3.16557384576456</v>
-      </c>
-      <c r="F11" s="497" t="n">
-        <v>2.46791616610319</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="299"/>
-      <c r="B12" t="s" s="305">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.49483216210308</v>
-      </c>
-      <c r="D12" s="433" t="n">
-        <v>14.804977123057</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.10053167382654</v>
-      </c>
-      <c r="F12" s="478" t="n">
-        <v>3.95998864259771</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="299"/>
-      <c r="B13" t="s" s="308">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13.2391787006972</v>
-      </c>
-      <c r="D13" s="433" t="n">
-        <v>17.9702909158033</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.52735487751411</v>
-      </c>
-      <c r="F13" s="478" t="n">
-        <v>5.0913326621983</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="299"/>
-      <c r="B14" t="s" s="311">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15.9824697026755</v>
-      </c>
-      <c r="D14" s="433" t="n">
-        <v>23.2984835502559</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.16392579860187</v>
-      </c>
-      <c r="F14" s="478" t="n">
-        <v>6.11791384388656</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="299"/>
-      <c r="B15" t="s" s="314">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>26.5011209275858</v>
-      </c>
-      <c r="D15" s="433" t="n">
-        <v>105.14812585858</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.7407399519735</v>
-      </c>
-      <c r="F15" s="478" t="n">
-        <v>7.69756551831944</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="299"/>
-      <c r="B16" t="s" s="317">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n" s="453">
-        <v>13.782085562358024</v>
-      </c>
-      <c r="D16" s="454" t="n">
-        <v>36.79181127900089</v>
-      </c>
-      <c r="E16" t="n" s="498">
-        <v>5.782895783394153</v>
-      </c>
-      <c r="F16" s="499" t="n">
-        <v>5.071477860545927</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="299"/>
-      <c r="B17" t="s" s="320">
-        <v>11</v>
-      </c>
-      <c r="C17" t="n" s="453">
-        <v>5.878989211072725</v>
-      </c>
-      <c r="D17" s="454" t="n">
-        <v>38.76825841164935</v>
-      </c>
-      <c r="E17" t="n" s="498">
-        <v>1.4084344185777238</v>
-      </c>
-      <c r="F17" s="499" t="n">
-        <v>1.4223545229857104</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="324">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s" s="328">
-        <v>5</v>
-      </c>
-      <c r="C18" s="455" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="456" t="n">
-        <v>0.00290949204122626</v>
-      </c>
-      <c r="E18" s="500" t="n">
-        <v>0.113100332410198</v>
-      </c>
-      <c r="F18" s="501" t="n">
-        <v>1.22529297515591</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="325"/>
-      <c r="B19" t="s" s="331">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="433" t="n">
-        <v>0.00727033046786119</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.26232568151872</v>
-      </c>
-      <c r="F19" s="478" t="n">
-        <v>2.10078417447227</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="325"/>
-      <c r="B20" t="s" s="334">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="433" t="n">
-        <v>0.0168774874689461</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.61493793094046</v>
-      </c>
-      <c r="F20" s="478" t="n">
-        <v>3.92957786413973</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="325"/>
-      <c r="B21" t="s" s="337">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="433" t="n">
-        <v>0.0480368763053889</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5.21606643577968</v>
-      </c>
-      <c r="F21" s="478" t="n">
-        <v>5.28355006388705</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="325"/>
-      <c r="B22" t="s" s="340">
-        <v>9</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="433" t="n">
-        <v>103.25811456</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.82005491162211</v>
-      </c>
-      <c r="F22" s="478" t="n">
-        <v>7.47008742995847</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="325"/>
-      <c r="B23" t="s" s="343">
-        <v>10</v>
-      </c>
-      <c r="C23" t="n" s="457">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="458" t="n">
-        <v>24.793384943179575</v>
-      </c>
-      <c r="E23" t="n" s="502">
-        <v>4.038138975367866</v>
-      </c>
-      <c r="F23" s="503" t="n">
-        <v>3.898070932894982</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="325"/>
-      <c r="B24" t="s" s="346">
-        <v>11</v>
-      </c>
-      <c r="C24" t="n" s="457">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="458" t="n">
-        <v>45.00261023208348</v>
-      </c>
-      <c r="E24" t="n" s="502">
-        <v>2.0590852537077073</v>
-      </c>
-      <c r="F24" s="503" t="n">
-        <v>1.7702604656403544</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="350">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s" s="354">
-        <v>5</v>
-      </c>
-      <c r="C25" s="459" t="n">
-        <v>4.33408331446117E-9</v>
-      </c>
-      <c r="D25" s="460" t="n">
-        <v>0.00290949204122626</v>
-      </c>
-      <c r="E25" s="504" t="n">
-        <v>0.113100332410198</v>
-      </c>
-      <c r="F25" s="505" t="n">
-        <v>1.22529297515591</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="351"/>
-      <c r="B26" t="s" s="357">
-        <v>6</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6.62652155369869E-9</v>
-      </c>
-      <c r="D26" s="433" t="n">
-        <v>0.00727033046786119</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2.26232568151872</v>
-      </c>
-      <c r="F26" s="478" t="n">
-        <v>2.10078417447227</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="351"/>
-      <c r="B27" t="s" s="360">
-        <v>7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8.54709014674881E-9</v>
-      </c>
-      <c r="D27" s="433" t="n">
-        <v>0.0168774874689461</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.61493793094046</v>
-      </c>
-      <c r="F27" s="478" t="n">
-        <v>3.92957786413973</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="351"/>
-      <c r="B28" t="s" s="363">
-        <v>8</v>
-      </c>
-      <c r="C28" t="n">
-        <v>9.49808054429013E-9</v>
-      </c>
-      <c r="D28" s="433" t="n">
-        <v>0.0480368763053889</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.21606643577928</v>
-      </c>
-      <c r="F28" s="478" t="n">
-        <v>5.28355006388705</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="351"/>
-      <c r="B29" t="s" s="366">
-        <v>9</v>
-      </c>
-      <c r="C29" t="n">
-        <v>9.97653160084155E-9</v>
-      </c>
-      <c r="D29" s="433" t="n">
-        <v>103.25811456</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7.82005491162211</v>
-      </c>
-      <c r="F29" s="478" t="n">
-        <v>7.47008742995847</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="351"/>
-      <c r="B30" t="s" s="369">
-        <v>10</v>
-      </c>
-      <c r="C30" t="n" s="461">
-        <v>8.042763965931953E-9</v>
-      </c>
-      <c r="D30" s="462" t="n">
-        <v>24.793384943179575</v>
-      </c>
-      <c r="E30" t="n" s="506">
-        <v>4.038094633548275</v>
-      </c>
-      <c r="F30" s="507" t="n">
-        <v>3.898070932894982</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="351"/>
-      <c r="B31" t="s" s="372">
-        <v>11</v>
-      </c>
-      <c r="C31" t="n" s="461">
-        <v>1.685481512786503E-9</v>
-      </c>
-      <c r="D31" s="462" t="n">
-        <v>45.00261023208348</v>
-      </c>
-      <c r="E31" t="n" s="506">
-        <v>2.059157395307708</v>
-      </c>
-      <c r="F31" s="507" t="n">
-        <v>1.7702604656403544</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="376">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s" s="380">
-        <v>5</v>
-      </c>
-      <c r="C32" s="463" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="D32" s="464" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="E32" s="508" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="F32" s="509" t="n">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="377"/>
-      <c r="B33" t="s" s="383">
-        <v>6</v>
-      </c>
       <c r="C33" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="D33" s="433" t="n">
+        <v>73800.0</v>
+      </c>
+      <c r="D33" s="447" t="n">
         <v>100000.0</v>
       </c>
       <c r="E33" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F33" s="478" t="n">
+      <c r="F33" s="499" t="n">
         <v>100000.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="377"/>
-      <c r="B34" t="s" s="386">
-        <v>7</v>
+      <c r="A34" s="391"/>
+      <c r="B34" t="s" s="400">
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="D34" s="433" t="n">
+        <v>75600.0</v>
+      </c>
+      <c r="D34" s="447" t="n">
         <v>100000.0</v>
       </c>
       <c r="E34" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F34" s="478" t="n">
+      <c r="F34" s="499" t="n">
         <v>100000.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="377"/>
-      <c r="B35" t="s" s="389">
-        <v>8</v>
+      <c r="A35" s="391"/>
+      <c r="B35" t="s" s="403">
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="D35" s="433" t="n">
+        <v>77000.0</v>
+      </c>
+      <c r="D35" s="447" t="n">
         <v>100000.0</v>
       </c>
       <c r="E35" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F35" s="478" t="n">
+      <c r="F35" s="499" t="n">
         <v>100000.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="377"/>
-      <c r="B36" t="s" s="392">
-        <v>9</v>
+      <c r="A36" s="391"/>
+      <c r="B36" t="s" s="406">
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="D36" s="433" t="n">
+        <v>80400.0</v>
+      </c>
+      <c r="D36" s="447" t="n">
         <v>100000.0</v>
       </c>
       <c r="E36" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F36" s="478" t="n">
+      <c r="F36" s="499" t="n">
         <v>100000.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="377"/>
-      <c r="B37" t="s" s="395">
+      <c r="A37" s="391"/>
+      <c r="B37" t="s" s="409">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n" s="479">
+        <v>75500.0</v>
+      </c>
+      <c r="D37" s="480" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E37" t="n" s="531">
+        <v>100000.0</v>
+      </c>
+      <c r="F37" s="532" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="391"/>
+      <c r="B38" t="s" s="412">
         <v>10</v>
       </c>
-      <c r="C37" t="n" s="465">
+      <c r="C38" t="n" s="479">
+        <v>2515.617883012707</v>
+      </c>
+      <c r="D38" s="480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="531">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="532" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="416">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="420">
+        <v>4</v>
+      </c>
+      <c r="C39" s="481" t="n">
+        <v>87500.0</v>
+      </c>
+      <c r="D39" s="482" t="n">
         <v>100000.0</v>
       </c>
-      <c r="D37" s="466" t="n">
+      <c r="E39" s="533" t="n">
         <v>100000.0</v>
       </c>
-      <c r="E37" t="n" s="510">
+      <c r="F39" s="534" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F37" s="511" t="n">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="377"/>
-      <c r="B38" t="s" s="398">
-        <v>11</v>
-      </c>
-      <c r="C38" t="n" s="465">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="466" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n" s="510">
-        <v>0.0</v>
-      </c>
-      <c r="F38" s="511" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="402">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s" s="406">
+    </row>
+    <row r="40">
+      <c r="A40" s="417"/>
+      <c r="B40" t="s" s="423">
         <v>5</v>
       </c>
-      <c r="C39" s="467" t="n">
-        <v>89500.0</v>
-      </c>
-      <c r="D39" s="468" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="E39" s="512" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="F39" s="513" t="n">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="403"/>
-      <c r="B40" t="s" s="409">
-        <v>6</v>
-      </c>
       <c r="C40" t="n">
-        <v>92100.0</v>
-      </c>
-      <c r="D40" s="433" t="n">
+        <v>92200.0</v>
+      </c>
+      <c r="D40" s="447" t="n">
         <v>100000.0</v>
       </c>
       <c r="E40" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F40" s="478" t="n">
+      <c r="F40" s="499" t="n">
         <v>100000.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="403"/>
-      <c r="B41" t="s" s="412">
-        <v>7</v>
+      <c r="A41" s="417"/>
+      <c r="B41" t="s" s="426">
+        <v>6</v>
       </c>
       <c r="C41" t="n">
         <v>94200.0</v>
       </c>
-      <c r="D41" s="433" t="n">
+      <c r="D41" s="447" t="n">
         <v>100000.0</v>
       </c>
       <c r="E41" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F41" s="478" t="n">
+      <c r="F41" s="499" t="n">
         <v>100000.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="403"/>
-      <c r="B42" t="s" s="415">
-        <v>8</v>
+      <c r="A42" s="417"/>
+      <c r="B42" t="s" s="429">
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>95500.0</v>
-      </c>
-      <c r="D42" s="433" t="n">
+        <v>96100.0</v>
+      </c>
+      <c r="D42" s="447" t="n">
         <v>100000.0</v>
       </c>
       <c r="E42" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F42" s="478" t="n">
+      <c r="F42" s="499" t="n">
         <v>100000.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="403"/>
-      <c r="B43" t="s" s="418">
-        <v>9</v>
+      <c r="A43" s="417"/>
+      <c r="B43" t="s" s="432">
+        <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>98300.0</v>
-      </c>
-      <c r="D43" s="433" t="n">
+        <v>99200.0</v>
+      </c>
+      <c r="D43" s="447" t="n">
         <v>100000.0</v>
       </c>
       <c r="E43" t="n">
         <v>100000.0</v>
       </c>
-      <c r="F43" s="478" t="n">
+      <c r="F43" s="499" t="n">
         <v>100000.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="403"/>
-      <c r="B44" t="s" s="421">
+      <c r="A44" s="417"/>
+      <c r="B44" t="s" s="435">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n" s="483">
+        <v>94180.0</v>
+      </c>
+      <c r="D44" s="484" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E44" t="n" s="535">
+        <v>100000.0</v>
+      </c>
+      <c r="F44" s="536" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="417"/>
+      <c r="B45" t="s" s="438">
         <v>10</v>
       </c>
-      <c r="C44" t="n" s="469">
-        <v>94076.0</v>
-      </c>
-      <c r="D44" s="470" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="E44" t="n" s="514">
-        <v>100000.0</v>
-      </c>
-      <c r="F44" s="515" t="n">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="403"/>
-      <c r="B45" t="s" s="424">
-        <v>11</v>
-      </c>
-      <c r="C45" t="n" s="469">
-        <v>2275.4633227835893</v>
-      </c>
-      <c r="D45" s="470" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="514">
-        <v>0.0</v>
-      </c>
-      <c r="F45" s="515" t="n">
+      <c r="C45" t="n" s="483">
+        <v>2868.0713612693344</v>
+      </c>
+      <c r="D45" s="484" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="535">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="536" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="427">
+      <c r="A46" t="s" s="441">
+        <v>16</v>
+      </c>
+      <c r="B46" s="442"/>
+      <c r="C46" t="s" s="493">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="495">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s" s="545">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s" s="547">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="445">
         <v>17</v>
       </c>
-      <c r="B46" s="428"/>
-      <c r="C46" s="471" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="477" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E46" s="516" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="522" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="431">
-        <v>18</v>
-      </c>
-      <c r="B47" s="432"/>
-      <c r="C47" s="474" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D47" s="475" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E47" s="519" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F47" s="520" t="e">
-        <v>#NUM!</v>
+      <c r="B47" s="446"/>
+      <c r="C47" t="n" s="497">
+        <v>75500.0</v>
+      </c>
+      <c r="D47" t="s" s="498">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s" s="549">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s" s="550">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3779,848 +3832,848 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="524">
+      <c r="A1" t="s" s="552">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="526">
+      <c r="A2" t="s" s="554">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="528">
+      <c r="B2" t="n" s="556">
+        <v>30.0</v>
+      </c>
+      <c r="C2" t="s" s="726">
+        <v>18</v>
+      </c>
+      <c r="D2" s="727"/>
+      <c r="E2" t="s" s="778">
+        <v>22</v>
+      </c>
+      <c r="F2" s="779"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="555">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="557">
+        <v>300000.0</v>
+      </c>
+      <c r="C3" t="s" s="731">
+        <v>19</v>
+      </c>
+      <c r="D3" s="735" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="783">
+        <v>19</v>
+      </c>
+      <c r="F3" s="787" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="561">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="565">
+        <v>4</v>
+      </c>
+      <c r="C4" s="736" t="n">
+        <v>48983.8970961206</v>
+      </c>
+      <c r="D4" s="737" t="n">
+        <v>49009.0019416179</v>
+      </c>
+      <c r="E4" s="788" t="n">
+        <v>41.8953077977312</v>
+      </c>
+      <c r="F4" s="789" t="n">
+        <v>42.1750415530423</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="562"/>
+      <c r="B5" t="s" s="568">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>78367.4020846891</v>
+      </c>
+      <c r="D5" s="722" t="n">
+        <v>78419.8670471544</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.9615303876642</v>
+      </c>
+      <c r="F5" s="774" t="n">
+        <v>44.9726995324256</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="562"/>
+      <c r="B6" t="s" s="571">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86978.8890985029</v>
+      </c>
+      <c r="D6" s="722" t="n">
+        <v>87071.2882882499</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45.4578175989897</v>
+      </c>
+      <c r="F6" s="774" t="n">
+        <v>45.3673494798401</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="562"/>
+      <c r="B7" t="s" s="574">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>92993.5512231962</v>
+      </c>
+      <c r="D7" s="722" t="n">
+        <v>92993.5512231962</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46.4226079353228</v>
+      </c>
+      <c r="F7" s="774" t="n">
+        <v>46.4226079353228</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="562"/>
+      <c r="B8" t="s" s="577">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>96952.6223979331</v>
+      </c>
+      <c r="D8" s="722" t="n">
+        <v>104408.73278518</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47.6099429511398</v>
+      </c>
+      <c r="F8" s="774" t="n">
+        <v>47.6099429511398</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="562"/>
+      <c r="B9" t="s" s="580">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n" s="738">
+        <v>83665.817949235</v>
+      </c>
+      <c r="D9" s="739" t="n">
+        <v>83964.30432011675</v>
+      </c>
+      <c r="E9" t="n" s="790">
+        <v>45.455547193398246</v>
+      </c>
+      <c r="F9" s="791" t="n">
+        <v>45.47381460410379</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="562"/>
+      <c r="B10" t="s" s="583">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n" s="738">
+        <v>12315.346911398081</v>
+      </c>
+      <c r="D10" s="739" t="n">
+        <v>12725.786747691594</v>
+      </c>
+      <c r="E10" t="n" s="790">
+        <v>1.2992539789768178</v>
+      </c>
+      <c r="F10" s="791" t="n">
+        <v>1.2893989891099633</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="587">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s" s="591">
+        <v>4</v>
+      </c>
+      <c r="C11" s="740" t="n">
+        <v>5136.69748444961</v>
+      </c>
+      <c r="D11" s="741" t="n">
+        <v>4496.56859429047</v>
+      </c>
+      <c r="E11" s="792" t="n">
+        <v>35.3470630672176</v>
+      </c>
+      <c r="F11" s="793" t="n">
+        <v>38.5076060460357</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="588"/>
+      <c r="B12" t="s" s="594">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6522.82152787187</v>
+      </c>
+      <c r="D12" s="722" t="n">
+        <v>6608.77357628215</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.8557073671349</v>
+      </c>
+      <c r="F12" s="774" t="n">
+        <v>39.5671917238619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="588"/>
+      <c r="B13" t="s" s="597">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7314.01256711271</v>
+      </c>
+      <c r="D13" s="722" t="n">
+        <v>7813.87089726041</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39.9290562272008</v>
+      </c>
+      <c r="F13" s="774" t="n">
+        <v>40.3419496470671</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="588"/>
+      <c r="B14" t="s" s="600">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7923.1186252878</v>
+      </c>
+      <c r="D14" s="722" t="n">
+        <v>8481.0113060541</v>
+      </c>
+      <c r="E14" t="n">
+        <v>41.07631657939</v>
+      </c>
+      <c r="F14" s="774" t="n">
+        <v>41.5121351472332</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="588"/>
+      <c r="B15" t="s" s="603">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10141.5157571163</v>
+      </c>
+      <c r="D15" s="722" t="n">
+        <v>10856.2511086181</v>
+      </c>
+      <c r="E15" t="n">
+        <v>43.3201179479757</v>
+      </c>
+      <c r="F15" s="774" t="n">
+        <v>43.1288012095799</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="588"/>
+      <c r="B16" t="s" s="606">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n" s="742">
+        <v>7300.678149774734</v>
+      </c>
+      <c r="D16" s="743" t="n">
+        <v>7662.304346911764</v>
+      </c>
+      <c r="E16" t="n" s="794">
+        <v>40.00065100665593</v>
+      </c>
+      <c r="F16" s="795" t="n">
+        <v>40.520651259202815</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="588"/>
+      <c r="B17" t="s" s="609">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n" s="742">
+        <v>1225.1069556484574</v>
+      </c>
+      <c r="D17" s="743" t="n">
+        <v>1566.664416973016</v>
+      </c>
+      <c r="E17" t="n" s="794">
+        <v>1.6731337990209416</v>
+      </c>
+      <c r="F17" s="795" t="n">
+        <v>1.2393992657700181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="613">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s" s="617">
+        <v>4</v>
+      </c>
+      <c r="C18" s="744" t="n">
+        <v>19.6690028815555</v>
+      </c>
+      <c r="D18" s="745" t="n">
+        <v>13.691846974972</v>
+      </c>
+      <c r="E18" s="796" t="n">
+        <v>12.7513269597343</v>
+      </c>
+      <c r="F18" s="797" t="n">
+        <v>12.8384843549856</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="614"/>
+      <c r="B19" t="s" s="620">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>27.9327224176859</v>
+      </c>
+      <c r="D19" s="722" t="n">
+        <v>27.5468520188311</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17.35277615696</v>
+      </c>
+      <c r="F19" s="774" t="n">
+        <v>19.6781949459375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="614"/>
+      <c r="B20" t="s" s="623">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30.5432611686568</v>
+      </c>
+      <c r="D20" s="722" t="n">
+        <v>38.1658749628515</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20.0333845215286</v>
+      </c>
+      <c r="F20" s="774" t="n">
+        <v>21.2031062049665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="614"/>
+      <c r="B21" t="s" s="626">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32.4912870327533</v>
+      </c>
+      <c r="D21" s="722" t="n">
+        <v>126.808539861075</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.624983656841</v>
+      </c>
+      <c r="F21" s="774" t="n">
+        <v>22.6710499963986</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="614"/>
+      <c r="B22" t="s" s="629">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>125.380345128649</v>
+      </c>
+      <c r="D22" s="722" t="n">
+        <v>166.190669292403</v>
+      </c>
+      <c r="E22" t="n">
+        <v>27.5184182483097</v>
+      </c>
+      <c r="F22" s="774" t="n">
+        <v>25.4157956703311</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="614"/>
+      <c r="B23" t="s" s="632">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n" s="746">
+        <v>37.86002872514389</v>
+      </c>
+      <c r="D23" s="747" t="n">
+        <v>69.40584169111428</v>
+      </c>
+      <c r="E23" t="n" s="798">
+        <v>20.346561765977896</v>
+      </c>
+      <c r="F23" s="799" t="n">
+        <v>20.59230665933375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="614"/>
+      <c r="B24" t="s" s="635">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n" s="746">
+        <v>26.84440848661821</v>
+      </c>
+      <c r="D24" s="747" t="n">
+        <v>56.553663682759996</v>
+      </c>
+      <c r="E24" t="n" s="798">
+        <v>4.133554632540753</v>
+      </c>
+      <c r="F24" s="799" t="n">
+        <v>3.0023340890738894</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="639">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="643">
+        <v>4</v>
+      </c>
+      <c r="C25" s="748" t="n">
+        <v>2.8437060824657</v>
+      </c>
+      <c r="D25" s="749" t="n">
+        <v>5.28951149996374</v>
+      </c>
+      <c r="E25" s="800" t="n">
+        <v>11.8859018112796</v>
+      </c>
+      <c r="F25" s="801" t="n">
+        <v>12.3488401528248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="640"/>
+      <c r="B26" t="s" s="646">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.8134254406578</v>
+      </c>
+      <c r="D26" s="722" t="n">
+        <v>13.150951049136</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.3237338769107</v>
+      </c>
+      <c r="F26" s="774" t="n">
+        <v>18.989533532435</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="640"/>
+      <c r="B27" t="s" s="649">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.39328277630307</v>
+      </c>
+      <c r="D27" s="722" t="n">
+        <v>18.0385596126719</v>
+      </c>
+      <c r="E27" t="n">
+        <v>19.504575733387</v>
+      </c>
+      <c r="F27" s="774" t="n">
+        <v>20.0142890367147</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="640"/>
+      <c r="B28" t="s" s="652">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.21019720271283</v>
+      </c>
+      <c r="D28" s="722" t="n">
+        <v>109.320404316443</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21.8681280926686</v>
+      </c>
+      <c r="F28" s="774" t="n">
+        <v>22.1921610452486</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="640"/>
+      <c r="B29" t="s" s="655">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>125.339220250005</v>
+      </c>
+      <c r="D29" s="722" t="n">
+        <v>134.127110784244</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27.1197667468701</v>
+      </c>
+      <c r="F29" s="774" t="n">
+        <v>25.2583667530052</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="640"/>
+      <c r="B30" t="s" s="658">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n" s="750">
+        <v>13.95791493263834</v>
+      </c>
+      <c r="D30" s="751" t="n">
+        <v>51.937085892397725</v>
+      </c>
+      <c r="E30" t="n" s="802">
+        <v>19.185231715213888</v>
+      </c>
+      <c r="F30" s="803" t="n">
+        <v>19.807773783384885</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="640"/>
+      <c r="B31" t="s" s="661">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n" s="750">
+        <v>33.53155672441789</v>
+      </c>
+      <c r="D31" s="751" t="n">
+        <v>51.78295668186636</v>
+      </c>
+      <c r="E31" t="n" s="802">
+        <v>3.9668327721006436</v>
+      </c>
+      <c r="F31" s="803" t="n">
+        <v>3.1052404063544032</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="665">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="669">
+        <v>4</v>
+      </c>
+      <c r="C32" s="752" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D32" s="753" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E32" s="804" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F32" s="805" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="666"/>
+      <c r="B33" t="s" s="672">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D33" s="722" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F33" s="774" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="666"/>
+      <c r="B34" t="s" s="675">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D34" s="722" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F34" s="774" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="666"/>
+      <c r="B35" t="s" s="678">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D35" s="722" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F35" s="774" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="666"/>
+      <c r="B36" t="s" s="681">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D36" s="722" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F36" s="774" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="666"/>
+      <c r="B37" t="s" s="684">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n" s="754">
+        <v>300000.0</v>
+      </c>
+      <c r="D37" s="755" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E37" t="n" s="806">
+        <v>300000.0</v>
+      </c>
+      <c r="F37" s="807" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="666"/>
+      <c r="B38" t="s" s="687">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n" s="754">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="755" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="806">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="807" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="691">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="695">
+        <v>4</v>
+      </c>
+      <c r="C39" s="756" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D39" s="757" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E39" s="808" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F39" s="809" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="692"/>
+      <c r="B40" t="s" s="698">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D40" s="722" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F40" s="774" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="692"/>
+      <c r="B41" t="s" s="701">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D41" s="722" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F41" s="774" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="692"/>
+      <c r="B42" t="s" s="704">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D42" s="722" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F42" s="774" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="692"/>
+      <c r="B43" t="s" s="707">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D43" s="722" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F43" s="774" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="692"/>
+      <c r="B44" t="s" s="710">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n" s="758">
+        <v>300000.0</v>
+      </c>
+      <c r="D44" s="759" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E44" t="n" s="810">
+        <v>300000.0</v>
+      </c>
+      <c r="F44" s="811" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="692"/>
+      <c r="B45" t="s" s="713">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n" s="758">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="759" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="810">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="811" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="716">
+        <v>16</v>
+      </c>
+      <c r="B46" s="717"/>
+      <c r="C46" t="s" s="768">
         <v>25</v>
       </c>
-      <c r="C2" t="s" s="698">
-        <v>19</v>
-      </c>
-      <c r="D2" s="699"/>
-      <c r="E2" t="s" s="743">
-        <v>23</v>
-      </c>
-      <c r="F2" s="744"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="527">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n" s="529">
-        <v>300000.0</v>
-      </c>
-      <c r="C3" t="s" s="703">
-        <v>20</v>
-      </c>
-      <c r="D3" s="707" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="748">
-        <v>20</v>
-      </c>
-      <c r="F3" s="752" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="533">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="537">
-        <v>5</v>
-      </c>
-      <c r="C4" s="708" t="n">
-        <v>65304.3934388838</v>
-      </c>
-      <c r="D4" s="709" t="n">
-        <v>65497.9144811687</v>
-      </c>
-      <c r="E4" s="753" t="n">
-        <v>43.395947219945</v>
-      </c>
-      <c r="F4" s="754" t="n">
-        <v>43.2797777183774</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="534"/>
-      <c r="B5" t="s" s="540">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>73550.9391184743</v>
-      </c>
-      <c r="D5" s="694" t="n">
-        <v>73550.9391184743</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45.0508629284328</v>
-      </c>
-      <c r="F5" s="739" t="n">
-        <v>45.0508629284328</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="534"/>
-      <c r="B6" t="s" s="543">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>78413.9476392736</v>
-      </c>
-      <c r="D6" s="694" t="n">
-        <v>78413.9476392736</v>
-      </c>
-      <c r="E6" t="n">
-        <v>45.9007466732181</v>
-      </c>
-      <c r="F6" s="739" t="n">
-        <v>45.8860388929371</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="534"/>
-      <c r="B7" t="s" s="546">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>90876.4665035594</v>
-      </c>
-      <c r="D7" s="694" t="n">
-        <v>90876.4665035594</v>
-      </c>
-      <c r="E7" t="n">
-        <v>46.7751944699605</v>
-      </c>
-      <c r="F7" s="739" t="n">
-        <v>46.7751944699605</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="534"/>
-      <c r="B8" t="s" s="549">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>98376.3164703172</v>
-      </c>
-      <c r="D8" s="694" t="n">
-        <v>98371.5417612298</v>
-      </c>
-      <c r="E8" t="n">
-        <v>48.7322280084581</v>
-      </c>
-      <c r="F8" s="739" t="n">
-        <v>48.9770977214695</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="534"/>
-      <c r="B9" t="s" s="552">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n" s="710">
-        <v>80933.1604806456</v>
-      </c>
-      <c r="D9" s="711" t="n">
-        <v>80958.79292857324</v>
-      </c>
-      <c r="E9" t="n" s="755">
-        <v>46.000418249713164</v>
-      </c>
-      <c r="F9" s="756" t="n">
-        <v>46.00163799459993</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="534"/>
-      <c r="B10" t="s" s="555">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n" s="710">
-        <v>9500.47369380324</v>
-      </c>
-      <c r="D10" s="711" t="n">
-        <v>9490.083275966204</v>
-      </c>
-      <c r="E10" t="n" s="755">
-        <v>1.3162079070311583</v>
-      </c>
-      <c r="F10" s="756" t="n">
-        <v>1.410758442879463</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="559">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s" s="563">
-        <v>5</v>
-      </c>
-      <c r="C11" s="712" t="n">
-        <v>4801.55083983732</v>
-      </c>
-      <c r="D11" s="713" t="n">
-        <v>5094.80382336629</v>
-      </c>
-      <c r="E11" s="757" t="n">
-        <v>37.7717855856312</v>
-      </c>
-      <c r="F11" s="758" t="n">
-        <v>37.6767395986925</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="560"/>
-      <c r="B12" t="s" s="566">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5916.18878830808</v>
-      </c>
-      <c r="D12" s="694" t="n">
-        <v>6298.03884479941</v>
-      </c>
-      <c r="E12" t="n">
-        <v>39.1656737176176</v>
-      </c>
-      <c r="F12" s="739" t="n">
-        <v>39.5019010780456</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="560"/>
-      <c r="B13" t="s" s="569">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6881.07070923003</v>
-      </c>
-      <c r="D13" s="694" t="n">
-        <v>6857.09135489885</v>
-      </c>
-      <c r="E13" t="n">
-        <v>39.883770108131</v>
-      </c>
-      <c r="F13" s="739" t="n">
-        <v>40.7959171275517</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="560"/>
-      <c r="B14" t="s" s="572">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7279.27292435205</v>
-      </c>
-      <c r="D14" s="694" t="n">
-        <v>7555.75128161703</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40.8923449690123</v>
-      </c>
-      <c r="F14" s="739" t="n">
-        <v>41.401584167503</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="560"/>
-      <c r="B15" t="s" s="575">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9761.03145299151</v>
-      </c>
-      <c r="D15" s="694" t="n">
-        <v>8921.91331939475</v>
-      </c>
-      <c r="E15" t="n">
-        <v>42.3004528240183</v>
-      </c>
-      <c r="F15" s="739" t="n">
-        <v>42.9097913983298</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="560"/>
-      <c r="B16" t="s" s="578">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n" s="714">
-        <v>6683.778151643348</v>
-      </c>
-      <c r="D16" s="715" t="n">
-        <v>6858.216922421911</v>
-      </c>
-      <c r="E16" t="n" s="759">
-        <v>40.092906014070635</v>
-      </c>
-      <c r="F16" s="760" t="n">
-        <v>40.51347097129546</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="560"/>
-      <c r="B17" t="s" s="581">
-        <v>11</v>
-      </c>
-      <c r="C17" t="n" s="714">
-        <v>1129.908901219515</v>
-      </c>
-      <c r="D17" s="715" t="n">
-        <v>1007.7047527476925</v>
-      </c>
-      <c r="E17" t="n" s="759">
-        <v>1.2653001262279393</v>
-      </c>
-      <c r="F17" s="760" t="n">
-        <v>1.2871310966918186</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="585">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s" s="589">
-        <v>5</v>
-      </c>
-      <c r="C18" s="716" t="n">
-        <v>18.4362722217907</v>
-      </c>
-      <c r="D18" s="717" t="n">
-        <v>16.7687032460385</v>
-      </c>
-      <c r="E18" s="761" t="n">
-        <v>12.7921607538587</v>
-      </c>
-      <c r="F18" s="762" t="n">
-        <v>16.577570940392</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="586"/>
-      <c r="B19" t="s" s="592">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25.2744989078108</v>
-      </c>
-      <c r="D19" s="694" t="n">
-        <v>23.0536967600278</v>
-      </c>
-      <c r="E19" t="n">
-        <v>17.4998360545306</v>
-      </c>
-      <c r="F19" s="739" t="n">
-        <v>18.8419727226793</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="586"/>
-      <c r="B20" t="s" s="595">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>31.0669031078062</v>
-      </c>
-      <c r="D20" s="694" t="n">
-        <v>34.5313992596195</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.8213231724422</v>
-      </c>
-      <c r="F20" s="739" t="n">
-        <v>20.9714805891265</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="586"/>
-      <c r="B21" t="s" s="598">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>34.2539777202015</v>
-      </c>
-      <c r="D21" s="694" t="n">
-        <v>124.675880309825</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22.7613544722854</v>
-      </c>
-      <c r="F21" s="739" t="n">
-        <v>22.9473995566205</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="586"/>
-      <c r="B22" t="s" s="601">
-        <v>9</v>
-      </c>
-      <c r="C22" t="n">
-        <v>48.2280182201528</v>
-      </c>
-      <c r="D22" s="694" t="n">
-        <v>148.277546352859</v>
-      </c>
-      <c r="E22" t="n">
-        <v>28.4435819913449</v>
-      </c>
-      <c r="F22" s="739" t="n">
-        <v>26.7858943396298</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="586"/>
-      <c r="B23" t="s" s="604">
-        <v>10</v>
-      </c>
-      <c r="C23" t="n" s="718">
-        <v>30.48412110711438</v>
-      </c>
-      <c r="D23" s="719" t="n">
-        <v>67.77966697738816</v>
-      </c>
-      <c r="E23" t="n" s="763">
-        <v>20.213976851204357</v>
-      </c>
-      <c r="F23" s="764" t="n">
-        <v>20.96267415521397</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="586"/>
-      <c r="B24" t="s" s="607">
-        <v>11</v>
-      </c>
-      <c r="C24" t="n" s="718">
-        <v>6.849838894784865</v>
-      </c>
-      <c r="D24" s="719" t="n">
-        <v>52.771677881183926</v>
-      </c>
-      <c r="E24" t="n" s="763">
-        <v>3.978490891741212</v>
-      </c>
-      <c r="F24" s="764" t="n">
-        <v>2.9510021389908823</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="611">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s" s="615">
-        <v>5</v>
-      </c>
-      <c r="C25" s="720" t="n">
-        <v>2.55495284469589</v>
-      </c>
-      <c r="D25" s="721" t="n">
-        <v>8.91730760348298</v>
-      </c>
-      <c r="E25" s="765" t="n">
-        <v>10.725520645419</v>
-      </c>
-      <c r="F25" s="766" t="n">
-        <v>16.0470716710203</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="612"/>
-      <c r="B26" t="s" s="618">
-        <v>6</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3.67190653332909</v>
-      </c>
-      <c r="D26" s="694" t="n">
-        <v>13.0447622029855</v>
-      </c>
-      <c r="E26" t="n">
-        <v>16.0748833004987</v>
-      </c>
-      <c r="F26" s="739" t="n">
-        <v>17.5357595538261</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="612"/>
-      <c r="B27" t="s" s="621">
-        <v>7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.39854631568699</v>
-      </c>
-      <c r="D27" s="694" t="n">
-        <v>18.0477713072206</v>
-      </c>
-      <c r="E27" t="n">
-        <v>19.211518116316</v>
-      </c>
-      <c r="F27" s="739" t="n">
-        <v>19.4874525928385</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="612"/>
-      <c r="B28" t="s" s="624">
-        <v>8</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.82058662025526</v>
-      </c>
-      <c r="D28" s="694" t="n">
-        <v>107.049036265118</v>
-      </c>
-      <c r="E28" t="n">
-        <v>22.139803282843</v>
-      </c>
-      <c r="F28" s="739" t="n">
-        <v>21.0198506885613</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="612"/>
-      <c r="B29" t="s" s="627">
-        <v>9</v>
-      </c>
-      <c r="C29" t="n">
-        <v>6.5532379495761</v>
-      </c>
-      <c r="D29" s="694" t="n">
-        <v>129.480638485178</v>
-      </c>
-      <c r="E29" t="n">
-        <v>28.1692717882392</v>
-      </c>
-      <c r="F29" s="739" t="n">
-        <v>26.6751575475445</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="612"/>
-      <c r="B30" t="s" s="630">
-        <v>10</v>
-      </c>
-      <c r="C30" t="n" s="722">
-        <v>4.344102787303342</v>
-      </c>
-      <c r="D30" s="723" t="n">
-        <v>52.62982097484081</v>
-      </c>
-      <c r="E30" t="n" s="767">
-        <v>19.10015955830536</v>
-      </c>
-      <c r="F30" s="768" t="n">
-        <v>19.857793941442083</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="612"/>
-      <c r="B31" t="s" s="633">
-        <v>11</v>
-      </c>
-      <c r="C31" t="n" s="722">
-        <v>0.9868283616394136</v>
-      </c>
-      <c r="D31" s="723" t="n">
-        <v>48.23484619511305</v>
-      </c>
-      <c r="E31" t="n" s="767">
-        <v>4.489150901082814</v>
-      </c>
-      <c r="F31" s="768" t="n">
-        <v>2.8543921628966444</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="637">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s" s="641">
-        <v>5</v>
-      </c>
-      <c r="C32" s="724" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D32" s="725" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E32" s="769" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F32" s="770" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="638"/>
-      <c r="B33" t="s" s="644">
-        <v>6</v>
-      </c>
-      <c r="C33" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D33" s="694" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F33" s="739" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="638"/>
-      <c r="B34" t="s" s="647">
-        <v>7</v>
-      </c>
-      <c r="C34" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D34" s="694" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F34" s="739" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="638"/>
-      <c r="B35" t="s" s="650">
-        <v>8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D35" s="694" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F35" s="739" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="638"/>
-      <c r="B36" t="s" s="653">
-        <v>9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D36" s="694" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F36" s="739" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="638"/>
-      <c r="B37" t="s" s="656">
-        <v>10</v>
-      </c>
-      <c r="C37" t="n" s="726">
-        <v>300000.0</v>
-      </c>
-      <c r="D37" s="727" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E37" t="n" s="771">
-        <v>300000.0</v>
-      </c>
-      <c r="F37" s="772" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="638"/>
-      <c r="B38" t="s" s="659">
-        <v>11</v>
-      </c>
-      <c r="C38" t="n" s="726">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="727" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n" s="771">
-        <v>0.0</v>
-      </c>
-      <c r="F38" s="772" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="663">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s" s="667">
-        <v>5</v>
-      </c>
-      <c r="C39" s="728" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D39" s="729" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E39" s="773" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F39" s="774" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="664"/>
-      <c r="B40" t="s" s="670">
-        <v>6</v>
-      </c>
-      <c r="C40" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D40" s="694" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F40" s="739" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="664"/>
-      <c r="B41" t="s" s="673">
-        <v>7</v>
-      </c>
-      <c r="C41" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D41" s="694" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F41" s="739" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="664"/>
-      <c r="B42" t="s" s="676">
-        <v>8</v>
-      </c>
-      <c r="C42" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D42" s="694" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F42" s="739" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="664"/>
-      <c r="B43" t="s" s="679">
-        <v>9</v>
-      </c>
-      <c r="C43" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="D43" s="694" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="F43" s="739" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="664"/>
-      <c r="B44" t="s" s="682">
-        <v>10</v>
-      </c>
-      <c r="C44" t="n" s="730">
-        <v>300000.0</v>
-      </c>
-      <c r="D44" s="731" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="E44" t="n" s="775">
-        <v>300000.0</v>
-      </c>
-      <c r="F44" s="776" t="n">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="664"/>
-      <c r="B45" t="s" s="685">
-        <v>11</v>
-      </c>
-      <c r="C45" t="n" s="730">
-        <v>0.0</v>
-      </c>
-      <c r="D45" s="731" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="775">
-        <v>0.0</v>
-      </c>
-      <c r="F45" s="776" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="688">
+      <c r="D46" t="s" s="770">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s" s="820">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s" s="822">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="720">
         <v>17</v>
       </c>
-      <c r="B46" s="689"/>
-      <c r="C46" s="732" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="738" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E46" s="777" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="783" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="692">
-        <v>18</v>
-      </c>
-      <c r="B47" s="693"/>
-      <c r="C47" s="735" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D47" s="736" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E47" s="780" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F47" s="781" t="e">
-        <v>#NUM!</v>
+      <c r="B47" s="721"/>
+      <c r="C47" t="s" s="772">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s" s="773">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s" s="824">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s" s="825">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ALHE/results/finalResult.xlsx
+++ b/ALHE/results/finalResult.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="dim_2" r:id="rId3" sheetId="1"/>
+    <sheet name="dim_10" r:id="rId4" sheetId="2"/>
+    <sheet name="dim_30" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -1176,8 +1178,378 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D32" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E35" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C32" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="C33" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="C35" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="C41" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E35" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'fixedAccuracy'</t>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0">
+      <text>
+        <t>Nie osiÄ…gniÄ™to 'terErr'</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="64">
   <si>
     <t>TytuĹ‚</t>
   </si>
@@ -1376,13 +1748,73 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="76">
+  <fonts count="88">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2005,7 +2437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1472">
+  <cellXfs count="2022">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4414,6 +4846,800 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="2" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="2" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="2" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="2" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
@@ -4479,6 +5705,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -4773,10 +6007,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="186" t="n">
-        <v>4.38236611444154E-8</v>
+        <v>1.25347355606209E-7</v>
       </c>
       <c r="D4" s="187" t="n">
-        <v>2.46265472014784E-7</v>
+        <v>1.18945229132805E-6</v>
       </c>
       <c r="E4" s="238" t="n">
         <v>2.3621123546036E-7</v>
@@ -4929,10 +6163,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3.67282314073236E-6</v>
+        <v>1.44980657523774E-6</v>
       </c>
       <c r="D5" s="172" t="n">
-        <v>1.33596686850979E-5</v>
+        <v>8.3255178537911E-6</v>
       </c>
       <c r="E5" t="n">
         <v>3.14171222726145E-6</v>
@@ -5085,10 +6319,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>8.33870171845774E-6</v>
+        <v>8.00552493274154E-6</v>
       </c>
       <c r="D6" s="172" t="n">
-        <v>4.20522348463237E-5</v>
+        <v>2.86980222767852E-5</v>
       </c>
       <c r="E6" t="n">
         <v>1.22067978054474E-5</v>
@@ -5241,10 +6475,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>5.46496578976985E-5</v>
+        <v>3.69362922469918E-5</v>
       </c>
       <c r="D7" s="172" t="n">
-        <v>1.14515493180534E-4</v>
+        <v>1.27271833662235E-4</v>
       </c>
       <c r="E7" t="n">
         <v>5.77995938328968E-5</v>
@@ -5397,10 +6631,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>7.67989336452501E-4</v>
+        <v>2.12275319597666E-4</v>
       </c>
       <c r="D8" s="172" t="n">
-        <v>0.00159449030797987</v>
+        <v>3.28982479743445E-4</v>
       </c>
       <c r="E8" t="n">
         <v>0.00506072065223862</v>
@@ -5553,10 +6787,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="n" s="188">
-        <v>6.885730680096454E-5</v>
+        <v>3.241557144065157E-5</v>
       </c>
       <c r="D9" s="189" t="n">
-        <v>1.5733039740780454E-4</v>
+        <v>7.48631712212955E-5</v>
       </c>
       <c r="E9" t="n" s="240">
         <v>2.344552187901174E-4</v>
@@ -5709,10 +6943,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="n" s="188">
-        <v>1.5779975263658315E-4</v>
+        <v>5.007419030693571E-5</v>
       </c>
       <c r="D10" s="189" t="n">
-        <v>3.486455269830934E-4</v>
+        <v>9.969424787592845E-5</v>
       </c>
       <c r="E10" t="n" s="240">
         <v>0.0010065858134028214</v>
@@ -8055,10 +9289,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="198" t="n">
-        <v>6.15784756519133E-10</v>
+        <v>1.47508671943797E-10</v>
       </c>
       <c r="D25" s="199" t="n">
-        <v>1.84627424459904E-10</v>
+        <v>1.02886588138063E-11</v>
       </c>
       <c r="E25" s="250" t="n">
         <v>3.66981112165377E-10</v>
@@ -8211,10 +9445,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.88333615369629E-9</v>
+        <v>1.16176579467719E-9</v>
       </c>
       <c r="D26" s="172" t="n">
-        <v>2.40913777815877E-9</v>
+        <v>1.70786051967298E-9</v>
       </c>
       <c r="E26" t="n">
         <v>2.46944864557008E-9</v>
@@ -8367,10 +9601,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>4.70225813842262E-9</v>
+        <v>4.41997372035985E-9</v>
       </c>
       <c r="D27" s="172" t="n">
-        <v>3.61774254997727E-9</v>
+        <v>4.29218971476075E-9</v>
       </c>
       <c r="E27" t="n">
         <v>4.37114522355841E-9</v>
@@ -8523,10 +9757,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>7.63463958719512E-9</v>
+        <v>6.88118007019511E-9</v>
       </c>
       <c r="D28" s="172" t="n">
-        <v>7.23468929209048E-9</v>
+        <v>6.850598310848E-9</v>
       </c>
       <c r="E28" t="n">
         <v>6.74657485433272E-9</v>
@@ -8679,10 +9913,10 @@
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>9.69254188021296E-9</v>
+        <v>9.66645075095585E-9</v>
       </c>
       <c r="D29" s="172" t="n">
-        <v>9.40792688197689E-9</v>
+        <v>8.9903551270254E-9</v>
       </c>
       <c r="E29" t="n">
         <v>9.808502454689E-9</v>
@@ -8835,10 +10069,10 @@
         <v>9</v>
       </c>
       <c r="C30" t="n" s="200">
-        <v>4.650239588954719E-9</v>
+        <v>4.370197075331816E-9</v>
       </c>
       <c r="D30" s="201" t="n">
-        <v>4.359112608653959E-9</v>
+        <v>4.10060692956904E-9</v>
       </c>
       <c r="E30" t="n" s="252">
         <v>4.642736257665092E-9</v>
@@ -8991,10 +10225,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="n" s="200">
-        <v>3.0539605394862815E-9</v>
+        <v>3.270605996591749E-9</v>
       </c>
       <c r="D31" s="201" t="n">
-        <v>2.846253703944886E-9</v>
+        <v>2.9645977248559887E-9</v>
       </c>
       <c r="E31" t="n" s="252">
         <v>2.7790391271596024E-9</v>
@@ -9149,10 +10383,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="202" t="n">
-        <v>960.0</v>
+        <v>920.0</v>
       </c>
       <c r="D32" s="203" t="n">
-        <v>900.0</v>
+        <v>1060.0</v>
       </c>
       <c r="E32" s="254" t="n">
         <v>940.0</v>
@@ -9305,7 +10539,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>1120.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D33" s="172" t="n">
         <v>1160.0</v>
@@ -9461,10 +10695,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="D34" s="172" t="n">
         <v>1180.0</v>
-      </c>
-      <c r="D34" s="172" t="n">
-        <v>1240.0</v>
       </c>
       <c r="E34" t="n">
         <v>1180.0</v>
@@ -9617,7 +10851,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>1280.0</v>
+        <v>1220.0</v>
       </c>
       <c r="D35" s="172" t="n">
         <v>1280.0</v>
@@ -9773,10 +11007,10 @@
         <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>1400.0</v>
+        <v>1360.0</v>
       </c>
       <c r="D36" s="172" t="n">
-        <v>1520.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E36" t="n">
         <v>1500.0</v>
@@ -9929,10 +11163,10 @@
         <v>9</v>
       </c>
       <c r="C37" t="n" s="204">
-        <v>1190.4</v>
+        <v>1117.6</v>
       </c>
       <c r="D37" s="205" t="n">
-        <v>1209.6</v>
+        <v>1213.6</v>
       </c>
       <c r="E37" t="n" s="256">
         <v>1176.0</v>
@@ -10085,10 +11319,10 @@
         <v>10</v>
       </c>
       <c r="C38" t="n" s="204">
-        <v>129.63024338479042</v>
+        <v>112.74159244336877</v>
       </c>
       <c r="D38" s="205" t="n">
-        <v>133.93033014718262</v>
+        <v>103.71756521117015</v>
       </c>
       <c r="E38" t="n" s="256">
         <v>158.11388300841898</v>
@@ -10243,10 +11477,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="206" t="n">
-        <v>1260.0</v>
+        <v>1120.0</v>
       </c>
       <c r="D39" s="207" t="n">
-        <v>1300.0</v>
+        <v>1320.0</v>
       </c>
       <c r="E39" s="258" t="n">
         <v>1180.0</v>
@@ -10402,7 +11636,7 @@
         <v>1340.0</v>
       </c>
       <c r="D40" s="172" t="n">
-        <v>1480.0</v>
+        <v>1400.0</v>
       </c>
       <c r="E40" t="n">
         <v>1380.0</v>
@@ -10555,10 +11789,10 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1460.0</v>
+        <v>1400.0</v>
       </c>
       <c r="D41" s="172" t="n">
-        <v>1520.0</v>
+        <v>1480.0</v>
       </c>
       <c r="E41" t="n">
         <v>1420.0</v>
@@ -10711,10 +11945,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>1540.0</v>
+        <v>1480.0</v>
       </c>
       <c r="D42" s="172" t="n">
-        <v>1580.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E42" t="n">
         <v>1540.0</v>
@@ -10867,10 +12101,10 @@
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>1700.0</v>
+        <v>1600.0</v>
       </c>
       <c r="D43" s="172" t="n">
-        <v>1860.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E43" t="n">
         <v>1660.0</v>
@@ -11023,10 +12257,10 @@
         <v>9</v>
       </c>
       <c r="C44" t="n" s="208">
-        <v>1457.6</v>
+        <v>1413.6</v>
       </c>
       <c r="D44" s="209" t="n">
-        <v>1523.2</v>
+        <v>1518.4</v>
       </c>
       <c r="E44" t="n" s="260">
         <v>1431.2</v>
@@ -11179,10 +12413,10 @@
         <v>10</v>
       </c>
       <c r="C45" t="n" s="208">
-        <v>131.44327039956565</v>
+        <v>115.8619868636819</v>
       </c>
       <c r="D45" s="209" t="n">
-        <v>130.98091464026353</v>
+        <v>148.42731105381742</v>
       </c>
       <c r="E45" t="n" s="260">
         <v>146.86501739125399</v>
@@ -11491,10 +12725,10 @@
       </c>
       <c r="B47" s="171"/>
       <c r="C47" t="n" s="222">
-        <v>1190.4</v>
+        <v>1117.6</v>
       </c>
       <c r="D47" t="n" s="223">
-        <v>1209.6</v>
+        <v>1213.6</v>
       </c>
       <c r="E47" t="n" s="274">
         <v>1176.0</v>
@@ -11682,4 +12916,1758 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6484375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1475">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="1477">
+        <v>10.0</v>
+      </c>
+      <c r="C2" t="s" s="1647">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1648"/>
+      <c r="E2" t="s" s="1699">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1700"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1476">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="1478">
+        <v>100000.0</v>
+      </c>
+      <c r="C3" t="s" s="1652">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1656" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="1704">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1708" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1482">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="1486">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1657" t="n">
+        <v>2087.61199802386</v>
+      </c>
+      <c r="D4" s="1658" t="n">
+        <v>2247.33757388069</v>
+      </c>
+      <c r="E4" s="1709" t="n">
+        <v>9.32970334039406</v>
+      </c>
+      <c r="F4" s="1710" t="n">
+        <v>9.31617060807402</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1483"/>
+      <c r="B5" t="s" s="1489">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3489.62201837514</v>
+      </c>
+      <c r="D5" s="1643" t="n">
+        <v>3862.47261014404</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.5362253206665</v>
+      </c>
+      <c r="F5" s="1695" t="n">
+        <v>10.6434177852369</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1483"/>
+      <c r="B6" t="s" s="1492">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4677.77364670965</v>
+      </c>
+      <c r="D6" s="1643" t="n">
+        <v>4796.71415038943</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.1186255912219</v>
+      </c>
+      <c r="F6" s="1695" t="n">
+        <v>11.1703480599307</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1483"/>
+      <c r="B7" t="s" s="1495">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5788.23322903511</v>
+      </c>
+      <c r="D7" s="1643" t="n">
+        <v>5422.84703303225</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.351967942607</v>
+      </c>
+      <c r="F7" s="1695" t="n">
+        <v>11.5981115963662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1483"/>
+      <c r="B8" t="s" s="1498">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7111.87165798496</v>
+      </c>
+      <c r="D8" s="1643" t="n">
+        <v>7907.64493000463</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.1131567877267</v>
+      </c>
+      <c r="F8" s="1695" t="n">
+        <v>12.5714706559285</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1483"/>
+      <c r="B9" t="s" s="1501">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n" s="1659">
+        <v>4593.189090288854</v>
+      </c>
+      <c r="D9" s="1660" t="n">
+        <v>4786.326285342092</v>
+      </c>
+      <c r="E9" t="n" s="1711">
+        <v>10.91365016555246</v>
+      </c>
+      <c r="F9" s="1712" t="n">
+        <v>11.111593651523881</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1483"/>
+      <c r="B10" t="s" s="1504">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n" s="1659">
+        <v>1541.0117308802792</v>
+      </c>
+      <c r="D10" s="1660" t="n">
+        <v>1366.0587430933713</v>
+      </c>
+      <c r="E10" t="n" s="1711">
+        <v>0.7895875626680757</v>
+      </c>
+      <c r="F10" s="1712" t="n">
+        <v>0.6976786658485643</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1508">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s" s="1512">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1661" t="n">
+        <v>6.12980549477413</v>
+      </c>
+      <c r="D11" s="1662" t="n">
+        <v>5.33370247166863</v>
+      </c>
+      <c r="E11" s="1713" t="n">
+        <v>1.85211420341831</v>
+      </c>
+      <c r="F11" s="1714" t="n">
+        <v>1.99746516030234</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1509"/>
+      <c r="B12" t="s" s="1515">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.5045350447898</v>
+      </c>
+      <c r="D12" s="1643" t="n">
+        <v>14.516994967149</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.80236683097237</v>
+      </c>
+      <c r="F12" s="1695" t="n">
+        <v>4.2247335058394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1509"/>
+      <c r="B13" t="s" s="1518">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13.4596263948134</v>
+      </c>
+      <c r="D13" s="1643" t="n">
+        <v>17.794326318217</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.81093068012373</v>
+      </c>
+      <c r="F13" s="1695" t="n">
+        <v>5.40692163193435</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1509"/>
+      <c r="B14" t="s" s="1521">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16.6866997791996</v>
+      </c>
+      <c r="D14" s="1643" t="n">
+        <v>28.4333755439223</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.29578684912855</v>
+      </c>
+      <c r="F14" s="1695" t="n">
+        <v>6.16430438807951</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1509"/>
+      <c r="B15" t="s" s="1524">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25.5333460911046</v>
+      </c>
+      <c r="D15" s="1643" t="n">
+        <v>105.64573328838</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.36003684463979</v>
+      </c>
+      <c r="F15" s="1695" t="n">
+        <v>7.99492598061862</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1509"/>
+      <c r="B16" t="s" s="1527">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n" s="1663">
+        <v>14.23581554188739</v>
+      </c>
+      <c r="D16" s="1664" t="n">
+        <v>34.38018223492312</v>
+      </c>
+      <c r="E16" t="n" s="1715">
+        <v>4.7205953690601135</v>
+      </c>
+      <c r="F16" s="1716" t="n">
+        <v>5.224015021835612</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1509"/>
+      <c r="B17" t="s" s="1530">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n" s="1663">
+        <v>5.261354962976095</v>
+      </c>
+      <c r="D17" s="1664" t="n">
+        <v>36.168865026024534</v>
+      </c>
+      <c r="E17" t="n" s="1715">
+        <v>1.3254871686590333</v>
+      </c>
+      <c r="F17" s="1716" t="n">
+        <v>1.4262844536129824</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1534">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s" s="1538">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1665" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="1666" t="n">
+        <v>0.00245758142273189</v>
+      </c>
+      <c r="E18" s="1717" t="n">
+        <v>0.0925098676388103</v>
+      </c>
+      <c r="F18" s="1718" t="n">
+        <v>0.458191793642186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1535"/>
+      <c r="B19" t="s" s="1541">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="1643" t="n">
+        <v>0.0142323160714</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.64913362296311</v>
+      </c>
+      <c r="F19" s="1695" t="n">
+        <v>3.21789346019511</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1535"/>
+      <c r="B20" t="s" s="1544">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="1643" t="n">
+        <v>0.0196302691334154</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.27621468135679</v>
+      </c>
+      <c r="F20" s="1695" t="n">
+        <v>3.98759471720139</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1535"/>
+      <c r="B21" t="s" s="1547">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="1643" t="n">
+        <v>0.039464788937039</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.3678134557555</v>
+      </c>
+      <c r="F21" s="1695" t="n">
+        <v>5.49378742960857</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1535"/>
+      <c r="B22" t="s" s="1550">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="1643" t="n">
+        <v>103.25811456</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.32673692210689</v>
+      </c>
+      <c r="F22" s="1695" t="n">
+        <v>6.51263255833821</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1535"/>
+      <c r="B23" t="s" s="1553">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n" s="1667">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="1668" t="n">
+        <v>20.666968683390294</v>
+      </c>
+      <c r="E23" t="n" s="1719">
+        <v>3.5338371975319034</v>
+      </c>
+      <c r="F23" s="1720" t="n">
+        <v>4.019837559825061</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1535"/>
+      <c r="B24" t="s" s="1556">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n" s="1667">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="1668" t="n">
+        <v>42.14711878309399</v>
+      </c>
+      <c r="E24" t="n" s="1719">
+        <v>1.6455818460776228</v>
+      </c>
+      <c r="F24" s="1720" t="n">
+        <v>1.6995628127459173</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1560">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="1564">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1669" t="n">
+        <v>4.72050487587694E-9</v>
+      </c>
+      <c r="D25" s="1670" t="n">
+        <v>0.00245758142273189</v>
+      </c>
+      <c r="E25" s="1721" t="n">
+        <v>0.0925098676388103</v>
+      </c>
+      <c r="F25" s="1722" t="n">
+        <v>0.458191793642186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1561"/>
+      <c r="B26" t="s" s="1567">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.46916839489131E-9</v>
+      </c>
+      <c r="D26" s="1643" t="n">
+        <v>0.0142323160714</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.64913362296311</v>
+      </c>
+      <c r="F26" s="1695" t="n">
+        <v>3.21789346019511</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1561"/>
+      <c r="B27" t="s" s="1570">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.29936652735341E-9</v>
+      </c>
+      <c r="D27" s="1643" t="n">
+        <v>0.0196302691334154</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.27621468135679</v>
+      </c>
+      <c r="F27" s="1695" t="n">
+        <v>3.98759471720139</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1561"/>
+      <c r="B28" t="s" s="1573">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.58357304625679E-9</v>
+      </c>
+      <c r="D28" s="1643" t="n">
+        <v>0.039464788937039</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.3678134557555</v>
+      </c>
+      <c r="F28" s="1695" t="n">
+        <v>5.49378742960857</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1561"/>
+      <c r="B29" t="s" s="1576">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.89768977888161E-9</v>
+      </c>
+      <c r="D29" s="1643" t="n">
+        <v>103.25811456</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.32673692210689</v>
+      </c>
+      <c r="F29" s="1695" t="n">
+        <v>6.51263255833821</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1561"/>
+      <c r="B30" t="s" s="1579">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n" s="1671">
+        <v>8.144916137098335E-9</v>
+      </c>
+      <c r="D30" s="1672" t="n">
+        <v>20.666968683390294</v>
+      </c>
+      <c r="E30" t="n" s="1723">
+        <v>3.5338371975319034</v>
+      </c>
+      <c r="F30" s="1724" t="n">
+        <v>4.019837559825061</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1561"/>
+      <c r="B31" t="s" s="1582">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n" s="1671">
+        <v>1.6955657611776739E-9</v>
+      </c>
+      <c r="D31" s="1672" t="n">
+        <v>42.14711878309399</v>
+      </c>
+      <c r="E31" t="n" s="1723">
+        <v>1.6455818460776228</v>
+      </c>
+      <c r="F31" s="1724" t="n">
+        <v>1.6995628127459173</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1586">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="1590">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1673" t="n">
+        <v>73000.0</v>
+      </c>
+      <c r="D32" s="1674" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E32" s="1725" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F32" s="1726" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1587"/>
+      <c r="B33" t="s" s="1593">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>75300.0</v>
+      </c>
+      <c r="D33" s="1643" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F33" s="1695" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1587"/>
+      <c r="B34" t="s" s="1596">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>77000.0</v>
+      </c>
+      <c r="D34" s="1643" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F34" s="1695" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1587"/>
+      <c r="B35" t="s" s="1599">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>77500.0</v>
+      </c>
+      <c r="D35" s="1643" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F35" s="1695" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1587"/>
+      <c r="B36" t="s" s="1602">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>80300.0</v>
+      </c>
+      <c r="D36" s="1643" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F36" s="1695" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1587"/>
+      <c r="B37" t="s" s="1605">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n" s="1675">
+        <v>76692.0</v>
+      </c>
+      <c r="D37" s="1676" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E37" t="n" s="1727">
+        <v>100000.0</v>
+      </c>
+      <c r="F37" s="1728" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1587"/>
+      <c r="B38" t="s" s="1608">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n" s="1675">
+        <v>1962.5493624365222</v>
+      </c>
+      <c r="D38" s="1676" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="1727">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="1728" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1612">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="1616">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1677" t="n">
+        <v>90500.0</v>
+      </c>
+      <c r="D39" s="1678" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E39" s="1729" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F39" s="1730" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1613"/>
+      <c r="B40" t="s" s="1619">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>94000.0</v>
+      </c>
+      <c r="D40" s="1643" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F40" s="1695" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1613"/>
+      <c r="B41" t="s" s="1622">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>95100.0</v>
+      </c>
+      <c r="D41" s="1643" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F41" s="1695" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1613"/>
+      <c r="B42" t="s" s="1625">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>97200.0</v>
+      </c>
+      <c r="D42" s="1643" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F42" s="1695" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1613"/>
+      <c r="B43" t="s" s="1628">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>99000.0</v>
+      </c>
+      <c r="D43" s="1643" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F43" s="1695" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1613"/>
+      <c r="B44" t="s" s="1631">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n" s="1679">
+        <v>95424.0</v>
+      </c>
+      <c r="D44" s="1680" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="E44" t="n" s="1731">
+        <v>100000.0</v>
+      </c>
+      <c r="F44" s="1732" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1613"/>
+      <c r="B45" t="s" s="1634">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n" s="1679">
+        <v>2259.107493384648</v>
+      </c>
+      <c r="D45" s="1680" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="1731">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="1732" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1637">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1638"/>
+      <c r="C46" t="s" s="1689">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="1691">
+        <v>54</v>
+      </c>
+      <c r="E46" t="s" s="1741">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s" s="1743">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1641">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1642"/>
+      <c r="C47" t="n" s="1693">
+        <v>76692.0</v>
+      </c>
+      <c r="D47" t="s" s="1694">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s" s="1745">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s" s="1746">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6484375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1750">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="1752">
+        <v>30.0</v>
+      </c>
+      <c r="C2" t="s" s="1922">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1923"/>
+      <c r="E2" t="s" s="1974">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1975"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1751">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="1753">
+        <v>300000.0</v>
+      </c>
+      <c r="C3" t="s" s="1927">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1931" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="1979">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1983" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1757">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="1761">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1932" t="n">
+        <v>61980.7616937818</v>
+      </c>
+      <c r="D4" s="1933" t="n">
+        <v>61958.605833984</v>
+      </c>
+      <c r="E4" s="1984" t="n">
+        <v>40.0698340302484</v>
+      </c>
+      <c r="F4" s="1985" t="n">
+        <v>39.9670077413417</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1758"/>
+      <c r="B5" t="s" s="1764">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>69714.4289990645</v>
+      </c>
+      <c r="D5" s="1918" t="n">
+        <v>69710.2720674391</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.1735575368853</v>
+      </c>
+      <c r="F5" s="1970" t="n">
+        <v>43.1735575368853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1758"/>
+      <c r="B6" t="s" s="1767">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76671.4407816009</v>
+      </c>
+      <c r="D6" s="1918" t="n">
+        <v>76776.5124793727</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44.6109246082503</v>
+      </c>
+      <c r="F6" s="1970" t="n">
+        <v>44.5184260007825</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1758"/>
+      <c r="B7" t="s" s="1770">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>87691.3238057524</v>
+      </c>
+      <c r="D7" s="1918" t="n">
+        <v>87634.1635794313</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46.2321968881263</v>
+      </c>
+      <c r="F7" s="1970" t="n">
+        <v>45.5594289583037</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1758"/>
+      <c r="B8" t="s" s="1773">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>93560.1405448023</v>
+      </c>
+      <c r="D8" s="1918" t="n">
+        <v>93558.3134307789</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47.5717334327356</v>
+      </c>
+      <c r="F8" s="1970" t="n">
+        <v>47.6635453810642</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1758"/>
+      <c r="B9" t="s" s="1776">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n" s="1934">
+        <v>78653.34643005891</v>
+      </c>
+      <c r="D9" s="1935" t="n">
+        <v>78658.16046512463</v>
+      </c>
+      <c r="E9" t="n" s="1986">
+        <v>44.58744802165663</v>
+      </c>
+      <c r="F9" s="1987" t="n">
+        <v>44.381994761268636</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1758"/>
+      <c r="B10" t="s" s="1779">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n" s="1934">
+        <v>10350.074365761415</v>
+      </c>
+      <c r="D10" s="1935" t="n">
+        <v>10354.776243109909</v>
+      </c>
+      <c r="E10" t="n" s="1986">
+        <v>1.9313722196615568</v>
+      </c>
+      <c r="F10" s="1987" t="n">
+        <v>1.9102039594202178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1783">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s" s="1787">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1936" t="n">
+        <v>5200.88706467411</v>
+      </c>
+      <c r="D11" s="1937" t="n">
+        <v>4956.37771579098</v>
+      </c>
+      <c r="E11" s="1988" t="n">
+        <v>35.7358118314984</v>
+      </c>
+      <c r="F11" s="1989" t="n">
+        <v>37.4258517013836</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1784"/>
+      <c r="B12" t="s" s="1790">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6288.40735360456</v>
+      </c>
+      <c r="D12" s="1918" t="n">
+        <v>6415.29410795746</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.4292885022501</v>
+      </c>
+      <c r="F12" s="1970" t="n">
+        <v>39.3349706636291</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1784"/>
+      <c r="B13" t="s" s="1793">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6711.04112439757</v>
+      </c>
+      <c r="D13" s="1918" t="n">
+        <v>7124.15542212606</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40.072161353093</v>
+      </c>
+      <c r="F13" s="1970" t="n">
+        <v>40.2423030231931</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1784"/>
+      <c r="B14" t="s" s="1796">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7734.72897810285</v>
+      </c>
+      <c r="D14" s="1918" t="n">
+        <v>8610.21447895726</v>
+      </c>
+      <c r="E14" t="n">
+        <v>41.1709800025616</v>
+      </c>
+      <c r="F14" s="1970" t="n">
+        <v>40.6224114646155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1784"/>
+      <c r="B15" t="s" s="1799">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11408.4160151299</v>
+      </c>
+      <c r="D15" s="1918" t="n">
+        <v>9708.31346215197</v>
+      </c>
+      <c r="E15" t="n">
+        <v>42.7351219917355</v>
+      </c>
+      <c r="F15" s="1970" t="n">
+        <v>42.198189224649</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1784"/>
+      <c r="B16" t="s" s="1802">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n" s="1938">
+        <v>7189.8160255789535</v>
+      </c>
+      <c r="D16" s="1939" t="n">
+        <v>7399.284141637568</v>
+      </c>
+      <c r="E16" t="n" s="1990">
+        <v>39.77847701546072</v>
+      </c>
+      <c r="F16" s="1991" t="n">
+        <v>39.991909166448785</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1784"/>
+      <c r="B17" t="s" s="1805">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n" s="1938">
+        <v>1363.2527714580715</v>
+      </c>
+      <c r="D17" s="1939" t="n">
+        <v>1334.6180016808808</v>
+      </c>
+      <c r="E17" t="n" s="1990">
+        <v>1.817919502254156</v>
+      </c>
+      <c r="F17" s="1991" t="n">
+        <v>1.2199459232791148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1809">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s" s="1813">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1940" t="n">
+        <v>17.3393682270694</v>
+      </c>
+      <c r="D18" s="1941" t="n">
+        <v>15.6478230253185</v>
+      </c>
+      <c r="E18" s="1992" t="n">
+        <v>13.404502973101</v>
+      </c>
+      <c r="F18" s="1993" t="n">
+        <v>15.0194043616319</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1810"/>
+      <c r="B19" t="s" s="1816">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>29.856851870472</v>
+      </c>
+      <c r="D19" s="1918" t="n">
+        <v>21.1289824772949</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17.8387277366343</v>
+      </c>
+      <c r="F19" s="1970" t="n">
+        <v>18.742402223349</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1810"/>
+      <c r="B20" t="s" s="1819">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33.9450362416777</v>
+      </c>
+      <c r="D20" s="1918" t="n">
+        <v>31.1991253784495</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20.058432965483</v>
+      </c>
+      <c r="F20" s="1970" t="n">
+        <v>20.6209726584046</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1810"/>
+      <c r="B21" t="s" s="1822">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>37.7586749660691</v>
+      </c>
+      <c r="D21" s="1918" t="n">
+        <v>38.4013059286715</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.6403191908227</v>
+      </c>
+      <c r="F21" s="1970" t="n">
+        <v>23.1907530530088</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1810"/>
+      <c r="B22" t="s" s="1825">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>125.381629807708</v>
+      </c>
+      <c r="D22" s="1918" t="n">
+        <v>158.604488052458</v>
+      </c>
+      <c r="E22" t="n">
+        <v>29.2805332332851</v>
+      </c>
+      <c r="F22" s="1970" t="n">
+        <v>28.8435949999575</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1810"/>
+      <c r="B23" t="s" s="1828">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n" s="1942">
+        <v>43.7862045664535</v>
+      </c>
+      <c r="D23" s="1943" t="n">
+        <v>49.358969527513445</v>
+      </c>
+      <c r="E23" t="n" s="1994">
+        <v>20.42944025463587</v>
+      </c>
+      <c r="F23" s="1995" t="n">
+        <v>21.170048858767856</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1810"/>
+      <c r="B24" t="s" s="1831">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n" s="1942">
+        <v>29.79511443180178</v>
+      </c>
+      <c r="D24" s="1943" t="n">
+        <v>47.26473721755743</v>
+      </c>
+      <c r="E24" t="n" s="1994">
+        <v>4.005062364899542</v>
+      </c>
+      <c r="F24" s="1995" t="n">
+        <v>3.2065456779709463</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1835">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="1839">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1944" t="n">
+        <v>2.50848663927843</v>
+      </c>
+      <c r="D25" s="1945" t="n">
+        <v>9.32851103849612</v>
+      </c>
+      <c r="E25" s="1996" t="n">
+        <v>11.6925944753449</v>
+      </c>
+      <c r="F25" s="1997" t="n">
+        <v>14.3540792889639</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1836"/>
+      <c r="B26" t="s" s="1842">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.94782724071649</v>
+      </c>
+      <c r="D26" s="1918" t="n">
+        <v>12.9317840752315</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.4103544845414</v>
+      </c>
+      <c r="F26" s="1970" t="n">
+        <v>18.5221089521724</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1836"/>
+      <c r="B27" t="s" s="1845">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.65177894601447</v>
+      </c>
+      <c r="D27" s="1918" t="n">
+        <v>14.4082284729168</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18.8963753975342</v>
+      </c>
+      <c r="F27" s="1970" t="n">
+        <v>20.3286080945751</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1836"/>
+      <c r="B28" t="s" s="1848">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.48892567736561</v>
+      </c>
+      <c r="D28" s="1918" t="n">
+        <v>19.7524787084785</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21.906111972962</v>
+      </c>
+      <c r="F28" s="1970" t="n">
+        <v>22.0040546994327</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1836"/>
+      <c r="B29" t="s" s="1851">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>125.339220250005</v>
+      </c>
+      <c r="D29" s="1918" t="n">
+        <v>128.664943544059</v>
+      </c>
+      <c r="E29" t="n">
+        <v>28.521336560385</v>
+      </c>
+      <c r="F29" s="1970" t="n">
+        <v>28.19094159126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1836"/>
+      <c r="B30" t="s" s="1854">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n" s="1946">
+        <v>21.019294110229207</v>
+      </c>
+      <c r="D30" s="1947" t="n">
+        <v>35.33715551216914</v>
+      </c>
+      <c r="E30" t="n" s="1998">
+        <v>19.32408478465679</v>
+      </c>
+      <c r="F30" s="1999" t="n">
+        <v>20.548067753380817</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1836"/>
+      <c r="B31" t="s" s="1857">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n" s="1946">
+        <v>39.29552127958432</v>
+      </c>
+      <c r="D31" s="1947" t="n">
+        <v>42.360403313721214</v>
+      </c>
+      <c r="E31" t="n" s="1998">
+        <v>4.2572049745386975</v>
+      </c>
+      <c r="F31" s="1999" t="n">
+        <v>3.216972079251727</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1861">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="1865">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1948" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D32" s="1949" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E32" s="2000" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F32" s="2001" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1862"/>
+      <c r="B33" t="s" s="1868">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D33" s="1918" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F33" s="1970" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1862"/>
+      <c r="B34" t="s" s="1871">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D34" s="1918" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F34" s="1970" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1862"/>
+      <c r="B35" t="s" s="1874">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D35" s="1918" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F35" s="1970" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1862"/>
+      <c r="B36" t="s" s="1877">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D36" s="1918" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F36" s="1970" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1862"/>
+      <c r="B37" t="s" s="1880">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n" s="1950">
+        <v>300000.0</v>
+      </c>
+      <c r="D37" s="1951" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E37" t="n" s="2002">
+        <v>300000.0</v>
+      </c>
+      <c r="F37" s="2003" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1862"/>
+      <c r="B38" t="s" s="1883">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n" s="1950">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="1951" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="2002">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="2003" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1887">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="1891">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1952" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D39" s="1953" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E39" s="2004" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F39" s="2005" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1888"/>
+      <c r="B40" t="s" s="1894">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D40" s="1918" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F40" s="1970" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1888"/>
+      <c r="B41" t="s" s="1897">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D41" s="1918" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F41" s="1970" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1888"/>
+      <c r="B42" t="s" s="1900">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D42" s="1918" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F42" s="1970" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1888"/>
+      <c r="B43" t="s" s="1903">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="D43" s="1918" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="F43" s="1970" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1888"/>
+      <c r="B44" t="s" s="1906">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n" s="1954">
+        <v>300000.0</v>
+      </c>
+      <c r="D44" s="1955" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="E44" t="n" s="2006">
+        <v>300000.0</v>
+      </c>
+      <c r="F44" s="2007" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1888"/>
+      <c r="B45" t="s" s="1909">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n" s="1954">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="1955" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="2006">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="2007" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1912">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1913"/>
+      <c r="C46" t="s" s="1964">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s" s="1966">
+        <v>54</v>
+      </c>
+      <c r="E46" t="s" s="2016">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s" s="2018">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1916">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1917"/>
+      <c r="C47" t="s" s="1968">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s" s="1969">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s" s="2020">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s" s="2021">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>